--- a/data/Low temp Hackathon 2024.xlsx
+++ b/data/Low temp Hackathon 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/30040636/Dev/sub-zero/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62689C18-443B-D740-88A3-7A015DB70ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B24477-6685-7443-A7C8-88ECA33D2667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Humans" sheetId="2" r:id="rId1"/>
@@ -241,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -249,11 +249,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,6 +277,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,11 +530,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M996"/>
+  <dimension ref="A1:M944"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20:M37"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -573,7 +584,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -614,7 +625,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -655,7 +666,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -696,7 +707,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -737,7 +748,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="13">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -778,7 +789,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1291,11 +1302,11 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" ht="13">
       <c r="A21" s="6"/>
@@ -1305,11 +1316,11 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" ht="13">
       <c r="A22" s="6"/>
@@ -1319,11 +1330,11 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" ht="13">
       <c r="A23" s="6"/>
@@ -1333,11 +1344,11 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" ht="13">
       <c r="A24" s="6"/>
@@ -1347,11 +1358,11 @@
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" ht="13">
       <c r="A25" s="6"/>
@@ -1361,11 +1372,11 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" ht="13">
       <c r="A26" s="6"/>
@@ -1375,11 +1386,11 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" ht="13">
       <c r="A27" s="6"/>
@@ -1389,11 +1400,11 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" ht="13">
       <c r="A28" s="6"/>
@@ -1403,11 +1414,11 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" ht="13">
       <c r="A29" s="6"/>
@@ -1417,11 +1428,11 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" ht="13">
       <c r="A30" s="6"/>
@@ -1431,11 +1442,11 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" ht="13">
       <c r="A31" s="6"/>
@@ -1445,11 +1456,11 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" ht="13">
       <c r="A32" s="6"/>
@@ -1459,11 +1470,11 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
     </row>
     <row r="33" spans="1:13" ht="13">
       <c r="A33" s="6"/>
@@ -1473,11 +1484,11 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" ht="13">
       <c r="A34" s="6"/>
@@ -1487,11 +1498,11 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13" ht="13">
       <c r="A35" s="6"/>
@@ -1501,11 +1512,11 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" ht="13">
       <c r="A36" s="6"/>
@@ -1515,11 +1526,11 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="13">
       <c r="A37" s="6"/>
@@ -1529,11 +1540,11 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
     </row>
     <row r="38" spans="1:13" ht="13">
       <c r="A38" s="6"/>
@@ -1543,11 +1554,11 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
     </row>
     <row r="39" spans="1:13" ht="13">
       <c r="A39" s="6"/>
@@ -1557,11 +1568,11 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="13">
       <c r="A40" s="6"/>
@@ -1571,11 +1582,11 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
     </row>
     <row r="41" spans="1:13" ht="13">
       <c r="A41" s="6"/>
@@ -14233,736 +14244,8 @@
       <c r="L944" s="5"/>
       <c r="M944" s="5"/>
     </row>
-    <row r="945" spans="1:13" ht="13">
-      <c r="A945" s="6"/>
-      <c r="C945" s="4"/>
-      <c r="D945" s="4"/>
-      <c r="E945" s="4"/>
-      <c r="F945" s="4"/>
-      <c r="G945" s="4"/>
-      <c r="H945" s="4"/>
-      <c r="I945" s="5"/>
-      <c r="J945" s="5"/>
-      <c r="K945" s="5"/>
-      <c r="L945" s="5"/>
-      <c r="M945" s="5"/>
-    </row>
-    <row r="946" spans="1:13" ht="13">
-      <c r="A946" s="6"/>
-      <c r="C946" s="4"/>
-      <c r="D946" s="4"/>
-      <c r="E946" s="4"/>
-      <c r="F946" s="4"/>
-      <c r="G946" s="4"/>
-      <c r="H946" s="4"/>
-      <c r="I946" s="5"/>
-      <c r="J946" s="5"/>
-      <c r="K946" s="5"/>
-      <c r="L946" s="5"/>
-      <c r="M946" s="5"/>
-    </row>
-    <row r="947" spans="1:13" ht="13">
-      <c r="A947" s="6"/>
-      <c r="C947" s="4"/>
-      <c r="D947" s="4"/>
-      <c r="E947" s="4"/>
-      <c r="F947" s="4"/>
-      <c r="G947" s="4"/>
-      <c r="H947" s="4"/>
-      <c r="I947" s="5"/>
-      <c r="J947" s="5"/>
-      <c r="K947" s="5"/>
-      <c r="L947" s="5"/>
-      <c r="M947" s="5"/>
-    </row>
-    <row r="948" spans="1:13" ht="13">
-      <c r="A948" s="6"/>
-      <c r="C948" s="4"/>
-      <c r="D948" s="4"/>
-      <c r="E948" s="4"/>
-      <c r="F948" s="4"/>
-      <c r="G948" s="4"/>
-      <c r="H948" s="4"/>
-      <c r="I948" s="5"/>
-      <c r="J948" s="5"/>
-      <c r="K948" s="5"/>
-      <c r="L948" s="5"/>
-      <c r="M948" s="5"/>
-    </row>
-    <row r="949" spans="1:13" ht="13">
-      <c r="A949" s="6"/>
-      <c r="C949" s="4"/>
-      <c r="D949" s="4"/>
-      <c r="E949" s="4"/>
-      <c r="F949" s="4"/>
-      <c r="G949" s="4"/>
-      <c r="H949" s="4"/>
-      <c r="I949" s="5"/>
-      <c r="J949" s="5"/>
-      <c r="K949" s="5"/>
-      <c r="L949" s="5"/>
-      <c r="M949" s="5"/>
-    </row>
-    <row r="950" spans="1:13" ht="13">
-      <c r="A950" s="6"/>
-      <c r="C950" s="4"/>
-      <c r="D950" s="4"/>
-      <c r="E950" s="4"/>
-      <c r="F950" s="4"/>
-      <c r="G950" s="4"/>
-      <c r="H950" s="4"/>
-      <c r="I950" s="5"/>
-      <c r="J950" s="5"/>
-      <c r="K950" s="5"/>
-      <c r="L950" s="5"/>
-      <c r="M950" s="5"/>
-    </row>
-    <row r="951" spans="1:13" ht="13">
-      <c r="A951" s="6"/>
-      <c r="C951" s="4"/>
-      <c r="D951" s="4"/>
-      <c r="E951" s="4"/>
-      <c r="F951" s="4"/>
-      <c r="G951" s="4"/>
-      <c r="H951" s="4"/>
-      <c r="I951" s="5"/>
-      <c r="J951" s="5"/>
-      <c r="K951" s="5"/>
-      <c r="L951" s="5"/>
-      <c r="M951" s="5"/>
-    </row>
-    <row r="952" spans="1:13" ht="13">
-      <c r="A952" s="6"/>
-      <c r="C952" s="4"/>
-      <c r="D952" s="4"/>
-      <c r="E952" s="4"/>
-      <c r="F952" s="4"/>
-      <c r="G952" s="4"/>
-      <c r="H952" s="4"/>
-      <c r="I952" s="5"/>
-      <c r="J952" s="5"/>
-      <c r="K952" s="5"/>
-      <c r="L952" s="5"/>
-      <c r="M952" s="5"/>
-    </row>
-    <row r="953" spans="1:13" ht="13">
-      <c r="A953" s="6"/>
-      <c r="C953" s="4"/>
-      <c r="D953" s="4"/>
-      <c r="E953" s="4"/>
-      <c r="F953" s="4"/>
-      <c r="G953" s="4"/>
-      <c r="H953" s="4"/>
-      <c r="I953" s="5"/>
-      <c r="J953" s="5"/>
-      <c r="K953" s="5"/>
-      <c r="L953" s="5"/>
-      <c r="M953" s="5"/>
-    </row>
-    <row r="954" spans="1:13" ht="13">
-      <c r="A954" s="6"/>
-      <c r="C954" s="4"/>
-      <c r="D954" s="4"/>
-      <c r="E954" s="4"/>
-      <c r="F954" s="4"/>
-      <c r="G954" s="4"/>
-      <c r="H954" s="4"/>
-      <c r="I954" s="5"/>
-      <c r="J954" s="5"/>
-      <c r="K954" s="5"/>
-      <c r="L954" s="5"/>
-      <c r="M954" s="5"/>
-    </row>
-    <row r="955" spans="1:13" ht="13">
-      <c r="A955" s="6"/>
-      <c r="C955" s="4"/>
-      <c r="D955" s="4"/>
-      <c r="E955" s="4"/>
-      <c r="F955" s="4"/>
-      <c r="G955" s="4"/>
-      <c r="H955" s="4"/>
-      <c r="I955" s="5"/>
-      <c r="J955" s="5"/>
-      <c r="K955" s="5"/>
-      <c r="L955" s="5"/>
-      <c r="M955" s="5"/>
-    </row>
-    <row r="956" spans="1:13" ht="13">
-      <c r="A956" s="6"/>
-      <c r="C956" s="4"/>
-      <c r="D956" s="4"/>
-      <c r="E956" s="4"/>
-      <c r="F956" s="4"/>
-      <c r="G956" s="4"/>
-      <c r="H956" s="4"/>
-      <c r="I956" s="5"/>
-      <c r="J956" s="5"/>
-      <c r="K956" s="5"/>
-      <c r="L956" s="5"/>
-      <c r="M956" s="5"/>
-    </row>
-    <row r="957" spans="1:13" ht="13">
-      <c r="A957" s="6"/>
-      <c r="C957" s="4"/>
-      <c r="D957" s="4"/>
-      <c r="E957" s="4"/>
-      <c r="F957" s="4"/>
-      <c r="G957" s="4"/>
-      <c r="H957" s="4"/>
-      <c r="I957" s="5"/>
-      <c r="J957" s="5"/>
-      <c r="K957" s="5"/>
-      <c r="L957" s="5"/>
-      <c r="M957" s="5"/>
-    </row>
-    <row r="958" spans="1:13" ht="13">
-      <c r="A958" s="6"/>
-      <c r="C958" s="4"/>
-      <c r="D958" s="4"/>
-      <c r="E958" s="4"/>
-      <c r="F958" s="4"/>
-      <c r="G958" s="4"/>
-      <c r="H958" s="4"/>
-      <c r="I958" s="5"/>
-      <c r="J958" s="5"/>
-      <c r="K958" s="5"/>
-      <c r="L958" s="5"/>
-      <c r="M958" s="5"/>
-    </row>
-    <row r="959" spans="1:13" ht="13">
-      <c r="A959" s="6"/>
-      <c r="C959" s="4"/>
-      <c r="D959" s="4"/>
-      <c r="E959" s="4"/>
-      <c r="F959" s="4"/>
-      <c r="G959" s="4"/>
-      <c r="H959" s="4"/>
-      <c r="I959" s="5"/>
-      <c r="J959" s="5"/>
-      <c r="K959" s="5"/>
-      <c r="L959" s="5"/>
-      <c r="M959" s="5"/>
-    </row>
-    <row r="960" spans="1:13" ht="13">
-      <c r="A960" s="6"/>
-      <c r="C960" s="4"/>
-      <c r="D960" s="4"/>
-      <c r="E960" s="4"/>
-      <c r="F960" s="4"/>
-      <c r="G960" s="4"/>
-      <c r="H960" s="4"/>
-      <c r="I960" s="5"/>
-      <c r="J960" s="5"/>
-      <c r="K960" s="5"/>
-      <c r="L960" s="5"/>
-      <c r="M960" s="5"/>
-    </row>
-    <row r="961" spans="1:13" ht="13">
-      <c r="A961" s="6"/>
-      <c r="C961" s="4"/>
-      <c r="D961" s="4"/>
-      <c r="E961" s="4"/>
-      <c r="F961" s="4"/>
-      <c r="G961" s="4"/>
-      <c r="H961" s="4"/>
-      <c r="I961" s="5"/>
-      <c r="J961" s="5"/>
-      <c r="K961" s="5"/>
-      <c r="L961" s="5"/>
-      <c r="M961" s="5"/>
-    </row>
-    <row r="962" spans="1:13" ht="13">
-      <c r="A962" s="6"/>
-      <c r="C962" s="4"/>
-      <c r="D962" s="4"/>
-      <c r="E962" s="4"/>
-      <c r="F962" s="4"/>
-      <c r="G962" s="4"/>
-      <c r="H962" s="4"/>
-      <c r="I962" s="5"/>
-      <c r="J962" s="5"/>
-      <c r="K962" s="5"/>
-      <c r="L962" s="5"/>
-      <c r="M962" s="5"/>
-    </row>
-    <row r="963" spans="1:13" ht="13">
-      <c r="A963" s="6"/>
-      <c r="C963" s="4"/>
-      <c r="D963" s="4"/>
-      <c r="E963" s="4"/>
-      <c r="F963" s="4"/>
-      <c r="G963" s="4"/>
-      <c r="H963" s="4"/>
-      <c r="I963" s="5"/>
-      <c r="J963" s="5"/>
-      <c r="K963" s="5"/>
-      <c r="L963" s="5"/>
-      <c r="M963" s="5"/>
-    </row>
-    <row r="964" spans="1:13" ht="13">
-      <c r="A964" s="6"/>
-      <c r="C964" s="4"/>
-      <c r="D964" s="4"/>
-      <c r="E964" s="4"/>
-      <c r="F964" s="4"/>
-      <c r="G964" s="4"/>
-      <c r="H964" s="4"/>
-      <c r="I964" s="5"/>
-      <c r="J964" s="5"/>
-      <c r="K964" s="5"/>
-      <c r="L964" s="5"/>
-      <c r="M964" s="5"/>
-    </row>
-    <row r="965" spans="1:13" ht="13">
-      <c r="A965" s="6"/>
-      <c r="C965" s="4"/>
-      <c r="D965" s="4"/>
-      <c r="E965" s="4"/>
-      <c r="F965" s="4"/>
-      <c r="G965" s="4"/>
-      <c r="H965" s="4"/>
-      <c r="I965" s="5"/>
-      <c r="J965" s="5"/>
-      <c r="K965" s="5"/>
-      <c r="L965" s="5"/>
-      <c r="M965" s="5"/>
-    </row>
-    <row r="966" spans="1:13" ht="13">
-      <c r="A966" s="6"/>
-      <c r="C966" s="4"/>
-      <c r="D966" s="4"/>
-      <c r="E966" s="4"/>
-      <c r="F966" s="4"/>
-      <c r="G966" s="4"/>
-      <c r="H966" s="4"/>
-      <c r="I966" s="5"/>
-      <c r="J966" s="5"/>
-      <c r="K966" s="5"/>
-      <c r="L966" s="5"/>
-      <c r="M966" s="5"/>
-    </row>
-    <row r="967" spans="1:13" ht="13">
-      <c r="A967" s="6"/>
-      <c r="C967" s="4"/>
-      <c r="D967" s="4"/>
-      <c r="E967" s="4"/>
-      <c r="F967" s="4"/>
-      <c r="G967" s="4"/>
-      <c r="H967" s="4"/>
-      <c r="I967" s="5"/>
-      <c r="J967" s="5"/>
-      <c r="K967" s="5"/>
-      <c r="L967" s="5"/>
-      <c r="M967" s="5"/>
-    </row>
-    <row r="968" spans="1:13" ht="13">
-      <c r="A968" s="6"/>
-      <c r="C968" s="4"/>
-      <c r="D968" s="4"/>
-      <c r="E968" s="4"/>
-      <c r="F968" s="4"/>
-      <c r="G968" s="4"/>
-      <c r="H968" s="4"/>
-      <c r="I968" s="5"/>
-      <c r="J968" s="5"/>
-      <c r="K968" s="5"/>
-      <c r="L968" s="5"/>
-      <c r="M968" s="5"/>
-    </row>
-    <row r="969" spans="1:13" ht="13">
-      <c r="A969" s="6"/>
-      <c r="C969" s="4"/>
-      <c r="D969" s="4"/>
-      <c r="E969" s="4"/>
-      <c r="F969" s="4"/>
-      <c r="G969" s="4"/>
-      <c r="H969" s="4"/>
-      <c r="I969" s="5"/>
-      <c r="J969" s="5"/>
-      <c r="K969" s="5"/>
-      <c r="L969" s="5"/>
-      <c r="M969" s="5"/>
-    </row>
-    <row r="970" spans="1:13" ht="13">
-      <c r="A970" s="6"/>
-      <c r="C970" s="4"/>
-      <c r="D970" s="4"/>
-      <c r="E970" s="4"/>
-      <c r="F970" s="4"/>
-      <c r="G970" s="4"/>
-      <c r="H970" s="4"/>
-      <c r="I970" s="5"/>
-      <c r="J970" s="5"/>
-      <c r="K970" s="5"/>
-      <c r="L970" s="5"/>
-      <c r="M970" s="5"/>
-    </row>
-    <row r="971" spans="1:13" ht="13">
-      <c r="A971" s="6"/>
-      <c r="C971" s="4"/>
-      <c r="D971" s="4"/>
-      <c r="E971" s="4"/>
-      <c r="F971" s="4"/>
-      <c r="G971" s="4"/>
-      <c r="H971" s="4"/>
-      <c r="I971" s="5"/>
-      <c r="J971" s="5"/>
-      <c r="K971" s="5"/>
-      <c r="L971" s="5"/>
-      <c r="M971" s="5"/>
-    </row>
-    <row r="972" spans="1:13" ht="13">
-      <c r="A972" s="6"/>
-      <c r="C972" s="4"/>
-      <c r="D972" s="4"/>
-      <c r="E972" s="4"/>
-      <c r="F972" s="4"/>
-      <c r="G972" s="4"/>
-      <c r="H972" s="4"/>
-      <c r="I972" s="5"/>
-      <c r="J972" s="5"/>
-      <c r="K972" s="5"/>
-      <c r="L972" s="5"/>
-      <c r="M972" s="5"/>
-    </row>
-    <row r="973" spans="1:13" ht="13">
-      <c r="A973" s="6"/>
-      <c r="C973" s="4"/>
-      <c r="D973" s="4"/>
-      <c r="E973" s="4"/>
-      <c r="F973" s="4"/>
-      <c r="G973" s="4"/>
-      <c r="H973" s="4"/>
-      <c r="I973" s="5"/>
-      <c r="J973" s="5"/>
-      <c r="K973" s="5"/>
-      <c r="L973" s="5"/>
-      <c r="M973" s="5"/>
-    </row>
-    <row r="974" spans="1:13" ht="13">
-      <c r="A974" s="6"/>
-      <c r="C974" s="4"/>
-      <c r="D974" s="4"/>
-      <c r="E974" s="4"/>
-      <c r="F974" s="4"/>
-      <c r="G974" s="4"/>
-      <c r="H974" s="4"/>
-      <c r="I974" s="5"/>
-      <c r="J974" s="5"/>
-      <c r="K974" s="5"/>
-      <c r="L974" s="5"/>
-      <c r="M974" s="5"/>
-    </row>
-    <row r="975" spans="1:13" ht="13">
-      <c r="A975" s="6"/>
-      <c r="C975" s="4"/>
-      <c r="D975" s="4"/>
-      <c r="E975" s="4"/>
-      <c r="F975" s="4"/>
-      <c r="G975" s="4"/>
-      <c r="H975" s="4"/>
-      <c r="I975" s="5"/>
-      <c r="J975" s="5"/>
-      <c r="K975" s="5"/>
-      <c r="L975" s="5"/>
-      <c r="M975" s="5"/>
-    </row>
-    <row r="976" spans="1:13" ht="13">
-      <c r="A976" s="6"/>
-      <c r="C976" s="4"/>
-      <c r="D976" s="4"/>
-      <c r="E976" s="4"/>
-      <c r="F976" s="4"/>
-      <c r="G976" s="4"/>
-      <c r="H976" s="4"/>
-      <c r="I976" s="5"/>
-      <c r="J976" s="5"/>
-      <c r="K976" s="5"/>
-      <c r="L976" s="5"/>
-      <c r="M976" s="5"/>
-    </row>
-    <row r="977" spans="1:13" ht="13">
-      <c r="A977" s="6"/>
-      <c r="C977" s="4"/>
-      <c r="D977" s="4"/>
-      <c r="E977" s="4"/>
-      <c r="F977" s="4"/>
-      <c r="G977" s="4"/>
-      <c r="H977" s="4"/>
-      <c r="I977" s="5"/>
-      <c r="J977" s="5"/>
-      <c r="K977" s="5"/>
-      <c r="L977" s="5"/>
-      <c r="M977" s="5"/>
-    </row>
-    <row r="978" spans="1:13" ht="13">
-      <c r="A978" s="6"/>
-      <c r="C978" s="4"/>
-      <c r="D978" s="4"/>
-      <c r="E978" s="4"/>
-      <c r="F978" s="4"/>
-      <c r="G978" s="4"/>
-      <c r="H978" s="4"/>
-      <c r="I978" s="5"/>
-      <c r="J978" s="5"/>
-      <c r="K978" s="5"/>
-      <c r="L978" s="5"/>
-      <c r="M978" s="5"/>
-    </row>
-    <row r="979" spans="1:13" ht="13">
-      <c r="A979" s="6"/>
-      <c r="C979" s="4"/>
-      <c r="D979" s="4"/>
-      <c r="E979" s="4"/>
-      <c r="F979" s="4"/>
-      <c r="G979" s="4"/>
-      <c r="H979" s="4"/>
-      <c r="I979" s="5"/>
-      <c r="J979" s="5"/>
-      <c r="K979" s="5"/>
-      <c r="L979" s="5"/>
-      <c r="M979" s="5"/>
-    </row>
-    <row r="980" spans="1:13" ht="13">
-      <c r="A980" s="6"/>
-      <c r="C980" s="4"/>
-      <c r="D980" s="4"/>
-      <c r="E980" s="4"/>
-      <c r="F980" s="4"/>
-      <c r="G980" s="4"/>
-      <c r="H980" s="4"/>
-      <c r="I980" s="5"/>
-      <c r="J980" s="5"/>
-      <c r="K980" s="5"/>
-      <c r="L980" s="5"/>
-      <c r="M980" s="5"/>
-    </row>
-    <row r="981" spans="1:13" ht="13">
-      <c r="A981" s="6"/>
-      <c r="C981" s="4"/>
-      <c r="D981" s="4"/>
-      <c r="E981" s="4"/>
-      <c r="F981" s="4"/>
-      <c r="G981" s="4"/>
-      <c r="H981" s="4"/>
-      <c r="I981" s="5"/>
-      <c r="J981" s="5"/>
-      <c r="K981" s="5"/>
-      <c r="L981" s="5"/>
-      <c r="M981" s="5"/>
-    </row>
-    <row r="982" spans="1:13" ht="13">
-      <c r="A982" s="6"/>
-      <c r="C982" s="4"/>
-      <c r="D982" s="4"/>
-      <c r="E982" s="4"/>
-      <c r="F982" s="4"/>
-      <c r="G982" s="4"/>
-      <c r="H982" s="4"/>
-      <c r="I982" s="5"/>
-      <c r="J982" s="5"/>
-      <c r="K982" s="5"/>
-      <c r="L982" s="5"/>
-      <c r="M982" s="5"/>
-    </row>
-    <row r="983" spans="1:13" ht="13">
-      <c r="A983" s="6"/>
-      <c r="C983" s="4"/>
-      <c r="D983" s="4"/>
-      <c r="E983" s="4"/>
-      <c r="F983" s="4"/>
-      <c r="G983" s="4"/>
-      <c r="H983" s="4"/>
-      <c r="I983" s="5"/>
-      <c r="J983" s="5"/>
-      <c r="K983" s="5"/>
-      <c r="L983" s="5"/>
-      <c r="M983" s="5"/>
-    </row>
-    <row r="984" spans="1:13" ht="13">
-      <c r="A984" s="6"/>
-      <c r="C984" s="4"/>
-      <c r="D984" s="4"/>
-      <c r="E984" s="4"/>
-      <c r="F984" s="4"/>
-      <c r="G984" s="4"/>
-      <c r="H984" s="4"/>
-      <c r="I984" s="5"/>
-      <c r="J984" s="5"/>
-      <c r="K984" s="5"/>
-      <c r="L984" s="5"/>
-      <c r="M984" s="5"/>
-    </row>
-    <row r="985" spans="1:13" ht="13">
-      <c r="A985" s="6"/>
-      <c r="C985" s="4"/>
-      <c r="D985" s="4"/>
-      <c r="E985" s="4"/>
-      <c r="F985" s="4"/>
-      <c r="G985" s="4"/>
-      <c r="H985" s="4"/>
-      <c r="I985" s="5"/>
-      <c r="J985" s="5"/>
-      <c r="K985" s="5"/>
-      <c r="L985" s="5"/>
-      <c r="M985" s="5"/>
-    </row>
-    <row r="986" spans="1:13" ht="13">
-      <c r="A986" s="6"/>
-      <c r="C986" s="4"/>
-      <c r="D986" s="4"/>
-      <c r="E986" s="4"/>
-      <c r="F986" s="4"/>
-      <c r="G986" s="4"/>
-      <c r="H986" s="4"/>
-      <c r="I986" s="5"/>
-      <c r="J986" s="5"/>
-      <c r="K986" s="5"/>
-      <c r="L986" s="5"/>
-      <c r="M986" s="5"/>
-    </row>
-    <row r="987" spans="1:13" ht="13">
-      <c r="A987" s="6"/>
-      <c r="C987" s="4"/>
-      <c r="D987" s="4"/>
-      <c r="E987" s="4"/>
-      <c r="F987" s="4"/>
-      <c r="G987" s="4"/>
-      <c r="H987" s="4"/>
-      <c r="I987" s="5"/>
-      <c r="J987" s="5"/>
-      <c r="K987" s="5"/>
-      <c r="L987" s="5"/>
-      <c r="M987" s="5"/>
-    </row>
-    <row r="988" spans="1:13" ht="13">
-      <c r="A988" s="6"/>
-      <c r="C988" s="4"/>
-      <c r="D988" s="4"/>
-      <c r="E988" s="4"/>
-      <c r="F988" s="4"/>
-      <c r="G988" s="4"/>
-      <c r="H988" s="4"/>
-      <c r="I988" s="5"/>
-      <c r="J988" s="5"/>
-      <c r="K988" s="5"/>
-      <c r="L988" s="5"/>
-      <c r="M988" s="5"/>
-    </row>
-    <row r="989" spans="1:13" ht="13">
-      <c r="A989" s="6"/>
-      <c r="C989" s="4"/>
-      <c r="D989" s="4"/>
-      <c r="E989" s="4"/>
-      <c r="F989" s="4"/>
-      <c r="G989" s="4"/>
-      <c r="H989" s="4"/>
-      <c r="I989" s="5"/>
-      <c r="J989" s="5"/>
-      <c r="K989" s="5"/>
-      <c r="L989" s="5"/>
-      <c r="M989" s="5"/>
-    </row>
-    <row r="990" spans="1:13" ht="13">
-      <c r="A990" s="6"/>
-      <c r="C990" s="4"/>
-      <c r="D990" s="4"/>
-      <c r="E990" s="4"/>
-      <c r="F990" s="4"/>
-      <c r="G990" s="4"/>
-      <c r="H990" s="4"/>
-      <c r="I990" s="5"/>
-      <c r="J990" s="5"/>
-      <c r="K990" s="5"/>
-      <c r="L990" s="5"/>
-      <c r="M990" s="5"/>
-    </row>
-    <row r="991" spans="1:13" ht="13">
-      <c r="A991" s="6"/>
-      <c r="C991" s="4"/>
-      <c r="D991" s="4"/>
-      <c r="E991" s="4"/>
-      <c r="F991" s="4"/>
-      <c r="G991" s="4"/>
-      <c r="H991" s="4"/>
-      <c r="I991" s="5"/>
-      <c r="J991" s="5"/>
-      <c r="K991" s="5"/>
-      <c r="L991" s="5"/>
-      <c r="M991" s="5"/>
-    </row>
-    <row r="992" spans="1:13" ht="13">
-      <c r="A992" s="6"/>
-      <c r="C992" s="4"/>
-      <c r="D992" s="4"/>
-      <c r="E992" s="4"/>
-      <c r="F992" s="4"/>
-      <c r="G992" s="4"/>
-      <c r="H992" s="4"/>
-      <c r="I992" s="5"/>
-      <c r="J992" s="5"/>
-      <c r="K992" s="5"/>
-      <c r="L992" s="5"/>
-      <c r="M992" s="5"/>
-    </row>
-    <row r="993" spans="1:13" ht="13">
-      <c r="A993" s="6"/>
-      <c r="C993" s="4"/>
-      <c r="D993" s="4"/>
-      <c r="E993" s="4"/>
-      <c r="F993" s="4"/>
-      <c r="G993" s="4"/>
-      <c r="H993" s="4"/>
-      <c r="I993" s="5"/>
-      <c r="J993" s="5"/>
-      <c r="K993" s="5"/>
-      <c r="L993" s="5"/>
-      <c r="M993" s="5"/>
-    </row>
-    <row r="994" spans="1:13" ht="13">
-      <c r="A994" s="6"/>
-      <c r="C994" s="4"/>
-      <c r="D994" s="4"/>
-      <c r="E994" s="4"/>
-      <c r="F994" s="4"/>
-      <c r="G994" s="4"/>
-      <c r="H994" s="4"/>
-      <c r="I994" s="5"/>
-      <c r="J994" s="5"/>
-      <c r="K994" s="5"/>
-      <c r="L994" s="5"/>
-      <c r="M994" s="5"/>
-    </row>
-    <row r="995" spans="1:13" ht="13">
-      <c r="A995" s="6"/>
-      <c r="C995" s="4"/>
-      <c r="D995" s="4"/>
-      <c r="E995" s="4"/>
-      <c r="F995" s="4"/>
-      <c r="G995" s="4"/>
-      <c r="H995" s="4"/>
-      <c r="I995" s="5"/>
-      <c r="J995" s="5"/>
-      <c r="K995" s="5"/>
-      <c r="L995" s="5"/>
-      <c r="M995" s="5"/>
-    </row>
-    <row r="996" spans="1:13" ht="13">
-      <c r="A996" s="6"/>
-      <c r="C996" s="4"/>
-      <c r="D996" s="4"/>
-      <c r="E996" s="4"/>
-      <c r="F996" s="4"/>
-      <c r="G996" s="4"/>
-      <c r="H996" s="4"/>
-      <c r="I996" s="5"/>
-      <c r="J996" s="5"/>
-      <c r="K996" s="5"/>
-      <c r="L996" s="5"/>
-      <c r="M996" s="5"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A996">
+  <conditionalFormatting sqref="A1:A944">
     <cfRule type="notContainsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -14976,10 +14259,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y993"/>
+  <dimension ref="A1:Y974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B18"/>
+      <selection activeCell="A21" sqref="A21:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -15796,61 +15079,61 @@
     <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
+    <row r="34" spans="1:1" ht="13">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
+    <row r="35" spans="1:1" ht="13">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
+    <row r="36" spans="1:1" ht="13">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
+    <row r="37" spans="1:1" ht="13">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
+    <row r="38" spans="1:1" ht="13">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
+    <row r="39" spans="1:1" ht="13">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
+    <row r="40" spans="1:1" ht="13">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
+    <row r="41" spans="1:1" ht="13">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
+    <row r="42" spans="1:1" ht="13">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
+    <row r="43" spans="1:1" ht="13">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1" ht="15.75" customHeight="1">
+    <row r="44" spans="1:1" ht="13">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1" ht="15.75" customHeight="1">
+    <row r="45" spans="1:1" ht="13">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1" ht="15.75" customHeight="1">
+    <row r="46" spans="1:1" ht="13">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1" ht="15.75" customHeight="1">
+    <row r="47" spans="1:1" ht="13">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" ht="15.75" customHeight="1">
+    <row r="48" spans="1:1" ht="13">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1" ht="15.75" customHeight="1">
+    <row r="49" spans="1:1" ht="13">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1" ht="15.75" customHeight="1">
+    <row r="50" spans="1:1" ht="13">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1" ht="15.75" customHeight="1">
+    <row r="51" spans="1:1" ht="13">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" ht="15.75" customHeight="1">
+    <row r="52" spans="1:1" ht="13">
       <c r="A52" s="1"/>
     </row>
     <row r="53" spans="1:1" ht="13">
@@ -18619,65 +17902,8 @@
     <row r="974" spans="1:1" ht="13">
       <c r="A974" s="1"/>
     </row>
-    <row r="975" spans="1:1" ht="13">
-      <c r="A975" s="1"/>
-    </row>
-    <row r="976" spans="1:1" ht="13">
-      <c r="A976" s="1"/>
-    </row>
-    <row r="977" spans="1:1" ht="13">
-      <c r="A977" s="1"/>
-    </row>
-    <row r="978" spans="1:1" ht="13">
-      <c r="A978" s="1"/>
-    </row>
-    <row r="979" spans="1:1" ht="13">
-      <c r="A979" s="1"/>
-    </row>
-    <row r="980" spans="1:1" ht="13">
-      <c r="A980" s="1"/>
-    </row>
-    <row r="981" spans="1:1" ht="13">
-      <c r="A981" s="1"/>
-    </row>
-    <row r="982" spans="1:1" ht="13">
-      <c r="A982" s="1"/>
-    </row>
-    <row r="983" spans="1:1" ht="13">
-      <c r="A983" s="1"/>
-    </row>
-    <row r="984" spans="1:1" ht="13">
-      <c r="A984" s="1"/>
-    </row>
-    <row r="985" spans="1:1" ht="13">
-      <c r="A985" s="1"/>
-    </row>
-    <row r="986" spans="1:1" ht="13">
-      <c r="A986" s="1"/>
-    </row>
-    <row r="987" spans="1:1" ht="13">
-      <c r="A987" s="1"/>
-    </row>
-    <row r="988" spans="1:1" ht="13">
-      <c r="A988" s="1"/>
-    </row>
-    <row r="989" spans="1:1" ht="13">
-      <c r="A989" s="1"/>
-    </row>
-    <row r="990" spans="1:1" ht="13">
-      <c r="A990" s="1"/>
-    </row>
-    <row r="991" spans="1:1" ht="13">
-      <c r="A991" s="1"/>
-    </row>
-    <row r="992" spans="1:1" ht="13">
-      <c r="A992" s="1"/>
-    </row>
-    <row r="993" spans="1:1" ht="13">
-      <c r="A993" s="1"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A993">
+  <conditionalFormatting sqref="A1:A974">
     <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -18688,10 +17914,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C689C5-E0CA-2A47-9D03-417D672F6B6E}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -18746,22 +17972,22 @@
         <v>14</v>
       </c>
       <c r="C2" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D2" s="9">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E2" s="9">
+        <v>40</v>
+      </c>
+      <c r="F2" s="9">
         <v>30</v>
       </c>
-      <c r="F2" s="9">
-        <v>50</v>
-      </c>
       <c r="G2" s="9">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I2" s="9">
         <v>70</v>
@@ -18770,7 +17996,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L2" s="9">
         <v>0</v>
@@ -18788,37 +18014,37 @@
         <v>14</v>
       </c>
       <c r="C3" s="9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>60</v>
+      </c>
+      <c r="F3" s="9">
+        <v>50</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
         <v>90</v>
       </c>
-      <c r="E3" s="9">
-        <v>40</v>
-      </c>
-      <c r="F3" s="9">
-        <v>60</v>
-      </c>
-      <c r="G3" s="9">
-        <v>90</v>
-      </c>
-      <c r="H3" s="9">
-        <v>50</v>
-      </c>
-      <c r="I3" s="9">
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>70</v>
+      </c>
+      <c r="M3" s="9">
         <v>80</v>
-      </c>
-      <c r="J3" s="9">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9">
-        <v>50</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0</v>
-      </c>
-      <c r="M3" s="9">
-        <v>0</v>
       </c>
       <c r="N3" s="9"/>
     </row>
@@ -18830,37 +18056,37 @@
         <v>17</v>
       </c>
       <c r="C4" s="9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D4" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9">
+        <v>50</v>
+      </c>
+      <c r="F4" s="9">
+        <v>60</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>60</v>
+      </c>
+      <c r="J4" s="9">
         <v>70</v>
       </c>
-      <c r="F4" s="9">
-        <v>30</v>
-      </c>
-      <c r="G4" s="9">
-        <v>10</v>
-      </c>
-      <c r="H4" s="9">
-        <v>20</v>
-      </c>
-      <c r="I4" s="9">
-        <v>70</v>
-      </c>
-      <c r="J4" s="9">
-        <v>90</v>
-      </c>
       <c r="K4" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L4" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M4" s="9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N4" s="9"/>
     </row>
@@ -18872,37 +18098,37 @@
         <v>17</v>
       </c>
       <c r="C5" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
         <v>30</v>
-      </c>
-      <c r="E5" s="9">
-        <v>70</v>
       </c>
       <c r="F5" s="9">
         <v>30</v>
       </c>
       <c r="G5" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H5" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
         <v>80</v>
       </c>
-      <c r="J5" s="9">
-        <v>90</v>
-      </c>
       <c r="K5" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L5" s="9">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M5" s="9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="N5" s="9"/>
     </row>
@@ -18917,34 +18143,34 @@
         <v>0</v>
       </c>
       <c r="D6" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E6" s="9">
+        <v>60</v>
+      </c>
+      <c r="F6" s="9">
+        <v>40</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
         <v>80</v>
       </c>
-      <c r="F6" s="9">
-        <v>20</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>10</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>50</v>
+      </c>
+      <c r="M6" s="9">
         <v>70</v>
-      </c>
-      <c r="J6" s="9">
-        <v>100</v>
-      </c>
-      <c r="K6" s="9">
-        <v>10</v>
-      </c>
-      <c r="L6" s="9">
-        <v>10</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
       </c>
       <c r="N6" s="9"/>
     </row>
@@ -18959,34 +18185,34 @@
         <v>0</v>
       </c>
       <c r="D7" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E7" s="9">
+        <v>40</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>50</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>30</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
         <v>80</v>
       </c>
-      <c r="F7" s="9">
-        <v>20</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>10</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="M7" s="9">
         <v>70</v>
-      </c>
-      <c r="J7" s="9">
-        <v>100</v>
-      </c>
-      <c r="K7" s="9">
-        <v>10</v>
-      </c>
-      <c r="L7" s="9">
-        <v>10</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
       </c>
       <c r="N7" s="9"/>
     </row>
@@ -19001,34 +18227,34 @@
         <v>0</v>
       </c>
       <c r="D8" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E8" s="9">
+        <v>80</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
         <v>60</v>
       </c>
-      <c r="F8" s="9">
-        <v>10</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>20</v>
-      </c>
       <c r="I8" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="J8" s="9">
         <v>70</v>
       </c>
       <c r="K8" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L8" s="9">
         <v>80</v>
       </c>
       <c r="M8" s="9">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="N8" s="9"/>
     </row>
@@ -19040,34 +18266,34 @@
         <v>17</v>
       </c>
       <c r="C9" s="9">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="D9" s="9">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E9" s="9">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9">
         <v>70</v>
       </c>
-      <c r="F9" s="9">
-        <v>20</v>
-      </c>
       <c r="G9" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I9" s="9">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J9" s="9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K9" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L9" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M9" s="9">
         <v>0</v>
@@ -19082,31 +18308,31 @@
         <v>14</v>
       </c>
       <c r="C10" s="9">
+        <v>70</v>
+      </c>
+      <c r="D10" s="9">
+        <v>70</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>60</v>
+      </c>
+      <c r="G10" s="9">
+        <v>100</v>
+      </c>
+      <c r="H10" s="9">
+        <v>40</v>
+      </c>
+      <c r="I10" s="9">
         <v>90</v>
       </c>
-      <c r="D10" s="9">
-        <v>90</v>
-      </c>
-      <c r="E10" s="9">
-        <v>80</v>
-      </c>
-      <c r="F10" s="9">
-        <v>70</v>
-      </c>
-      <c r="G10" s="9">
-        <v>90</v>
-      </c>
-      <c r="H10" s="9">
-        <v>50</v>
-      </c>
-      <c r="I10" s="9">
-        <v>100</v>
-      </c>
       <c r="J10" s="9">
         <v>0</v>
       </c>
       <c r="K10" s="9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
@@ -19124,31 +18350,31 @@
         <v>14</v>
       </c>
       <c r="C11" s="9">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D11" s="9">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E11" s="9">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F11" s="9">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G11" s="9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H11" s="9">
         <v>20</v>
       </c>
       <c r="I11" s="9">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J11" s="9">
         <v>0</v>
       </c>
       <c r="K11" s="9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L11" s="9">
         <v>0</v>
@@ -19166,31 +18392,31 @@
         <v>14</v>
       </c>
       <c r="C12" s="9">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D12" s="9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E12" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F12" s="9">
         <v>40</v>
       </c>
       <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
         <v>90</v>
       </c>
-      <c r="H12" s="9">
-        <v>20</v>
-      </c>
       <c r="I12" s="9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J12" s="9">
         <v>0</v>
       </c>
       <c r="K12" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L12" s="9">
         <v>0</v>
@@ -19208,31 +18434,31 @@
         <v>14</v>
       </c>
       <c r="C13" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D13" s="9">
         <v>20</v>
       </c>
       <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>40</v>
+      </c>
+      <c r="G13" s="9">
+        <v>40</v>
+      </c>
+      <c r="H13" s="9">
         <v>70</v>
       </c>
-      <c r="F13" s="9">
+      <c r="I13" s="9">
         <v>30</v>
       </c>
-      <c r="G13" s="9">
-        <v>10</v>
-      </c>
-      <c r="H13" s="9">
-        <v>90</v>
-      </c>
-      <c r="I13" s="9">
-        <v>50</v>
-      </c>
       <c r="J13" s="9">
         <v>0</v>
       </c>
       <c r="K13" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
@@ -19250,37 +18476,37 @@
         <v>14</v>
       </c>
       <c r="C14" s="9">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D14" s="9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E14" s="9">
+        <v>50</v>
+      </c>
+      <c r="F14" s="9">
+        <v>55</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>10</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>50</v>
+      </c>
+      <c r="K14" s="9">
         <v>70</v>
       </c>
-      <c r="F14" s="9">
-        <v>50</v>
-      </c>
-      <c r="G14" s="9">
-        <v>90</v>
-      </c>
-      <c r="H14" s="9">
-        <v>30</v>
-      </c>
-      <c r="I14" s="9">
-        <v>90</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
-        <v>30</v>
-      </c>
       <c r="L14" s="9">
         <v>0</v>
       </c>
       <c r="M14" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N14" s="9"/>
     </row>
@@ -19292,37 +18518,37 @@
         <v>17</v>
       </c>
       <c r="C15" s="9">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="D15" s="9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E15" s="9">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F15" s="9">
+        <v>90</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
         <v>60</v>
       </c>
-      <c r="G15" s="9">
-        <v>0</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="I15" s="9">
+        <v>90</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>60</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
         <v>10</v>
-      </c>
-      <c r="I15" s="9">
-        <v>30</v>
-      </c>
-      <c r="J15" s="9">
-        <v>10</v>
-      </c>
-      <c r="K15" s="9">
-        <v>80</v>
-      </c>
-      <c r="L15" s="9">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
-        <v>0</v>
       </c>
       <c r="N15" s="9"/>
     </row>
@@ -19334,41 +18560,41 @@
         <v>30</v>
       </c>
       <c r="C16" s="9">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D16" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E16" s="9">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F16" s="9">
         <v>80</v>
       </c>
       <c r="G16" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H16" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J16" s="9">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
         <v>60</v>
       </c>
-      <c r="L16" s="9">
-        <v>10</v>
-      </c>
       <c r="M16" s="9">
         <v>0</v>
       </c>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:26">
       <c r="A17" s="9" t="s">
         <v>31</v>
       </c>
@@ -19376,22 +18602,22 @@
         <v>30</v>
       </c>
       <c r="C17" s="9">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D17" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E17" s="9">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F17" s="9">
         <v>80</v>
       </c>
       <c r="G17" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H17" s="9">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="I17" s="9">
         <v>90</v>
@@ -19400,17 +18626,17 @@
         <v>0</v>
       </c>
       <c r="K17" s="9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L17" s="9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M17" s="9">
         <v>0</v>
       </c>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:26">
       <c r="A18" s="9" t="s">
         <v>32</v>
       </c>
@@ -19421,37 +18647,37 @@
         <v>90</v>
       </c>
       <c r="D18" s="9">
+        <v>60</v>
+      </c>
+      <c r="E18" s="9">
+        <v>90</v>
+      </c>
+      <c r="F18" s="9">
+        <v>80</v>
+      </c>
+      <c r="G18" s="9">
         <v>50</v>
       </c>
-      <c r="E18" s="9">
-        <v>80</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="H18" s="9">
+        <v>60</v>
+      </c>
+      <c r="I18" s="9">
+        <v>90</v>
+      </c>
+      <c r="J18" s="9">
+        <v>20</v>
+      </c>
+      <c r="K18" s="9">
         <v>70</v>
       </c>
-      <c r="G18" s="9">
-        <v>40</v>
-      </c>
-      <c r="H18" s="9">
-        <v>20</v>
-      </c>
-      <c r="I18" s="9">
-        <v>100</v>
-      </c>
-      <c r="J18" s="9">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
-        <v>30</v>
-      </c>
       <c r="L18" s="9">
+        <v>70</v>
+      </c>
+      <c r="M18" s="9">
         <v>10</v>
       </c>
-      <c r="M18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -19467,7 +18693,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:26">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -19482,280 +18708,770 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+    </row>
+    <row r="21" spans="1:26" ht="15">
+      <c r="A21" s="10"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+    </row>
+    <row r="22" spans="1:26" ht="15">
+      <c r="A22" s="10"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
       <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+    </row>
+    <row r="23" spans="1:26" ht="15">
+      <c r="A23" s="10"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+    </row>
+    <row r="24" spans="1:26" ht="15">
+      <c r="A24" s="10"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="11"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+    </row>
+    <row r="26" spans="1:26" ht="15">
+      <c r="A26" s="10"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+    </row>
+    <row r="27" spans="1:26" ht="15">
+      <c r="A27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="1"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="1"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="1"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="1"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="1"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="1"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="1"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="1"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="1"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="1"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="C60" s="9"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A21:A37">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(A21))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19767,8 +19483,8 @@
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -20513,7 +20229,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A18">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/Low temp Hackathon 2024.xlsx
+++ b/data/Low temp Hackathon 2024.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/30040636/Dev/sub-zero/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B24477-6685-7443-A7C8-88ECA33D2667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB992151-9E77-A948-AE70-C8405ED92CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Humans" sheetId="2" r:id="rId1"/>
     <sheet name="GPT-4" sheetId="4" r:id="rId2"/>
     <sheet name="GPT-4-04" sheetId="5" r:id="rId3"/>
     <sheet name="Llama2" sheetId="3" r:id="rId4"/>
+    <sheet name="Llama3" sheetId="8" r:id="rId5"/>
+    <sheet name="Claude" sheetId="6" r:id="rId6"/>
+    <sheet name="Llama3 - tmp" sheetId="9" r:id="rId7"/>
+    <sheet name="GPT-4-04 - tmp" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="57">
   <si>
     <t>statement</t>
   </si>
@@ -173,12 +177,51 @@
   <si>
     <t>Robodebt has shaken not only my trust but the trust of our society in the Australian Public Service. I know that the frontline workers do their best, in sometimes very difficult circumstances, to deal with the public who are very stressed, but there was a complete failure of leadership in the higher echelons of the Public Service and a complete failure of political courage and political understanding of the importance of providing support to the most disadvantaged in our society.</t>
   </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>Throughout my service in numerous portfolios over almost nine years I enjoyed positive, respectful and professional relationships with Public Service officials at all times, and there is no evidence before the commission to the contrary.</t>
+  </si>
+  <si>
+    <t>At the last election, Labor claimed they could do a better job, yet Australians are now worse off, paying more for everything and earning less—the exact opposite of what Labor proposed.</t>
+  </si>
+  <si>
+    <t>The recent report of the Holmes royal commission highlights the many unintended consequences of the robodebt scheme and the regrettable impact the operations of the scheme had on individuals and families, and I once again acknowledge and express my deep regret for the impacts of these unintended consequences on these individuals and their families.</t>
+  </si>
+  <si>
+    <t>As Minister for Social Services I played no role and had no responsibility in the operation or administration of the robodebt scheme.</t>
+  </si>
+  <si>
+    <t>The commission’s suggestion that it is reasonable that I would have or should have formed a contrary view to this at the time is not credible or reasonable.</t>
+  </si>
+  <si>
+    <t>Media reporting and commentary following the release of the commission’s report, especially by government ministers, have falsely and disproportionately assigned an overwhelming responsibility for the conduct and operations of the robodebt scheme to my role as Minister for Social Services.</t>
+  </si>
+  <si>
+    <t>I was hit twice by the RoboDebt scheme. The first year they stated I owed money from an employment role in 2008. I was working as a Cadet getting Study Allowance alongside my Salary — Centrelink calculated that I earned $8000 in 8 weeks. What a laugh! I am a single parent who could only dream of earning that kind of money.</t>
+  </si>
+  <si>
+    <t>I broke both my legs and was in a wheelchair for months and I work as a chef I had to prove I wasn’t working, and told me that I declared that I made $0 that year which is a lie gave me $5500 debt I asked for evidence several time with no success.</t>
+  </si>
+  <si>
+    <t>I also noted in evidence departmental statistics on the sole use of income averaging to raise debts under Labor ministers Plibersek and Bowen and form and actual letters used by the department going back as far as 1994 that highlighted this practice.</t>
+  </si>
+  <si>
+    <t>Robodebt has shaken not only my trust but the trust of our society in the Australian Public Service.</t>
+  </si>
+  <si>
+    <t>I am still shocked by the response of the previous government, and I still cannot understand why they pushed forward over a number of years in this process.</t>
+  </si>
+  <si>
+    <t>In 2021, I spoke in this place about how my electorate of Macarthur had lost people to suicide because of the stress that robodebt had placed upon them.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -211,6 +254,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times"/>
     </font>
@@ -262,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -279,6 +327,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,7 +583,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1296,269 +1345,269 @@
     </row>
     <row r="20" spans="1:13" ht="13">
       <c r="A20" s="6"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" ht="13">
       <c r="A21" s="6"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:13" ht="13">
       <c r="A22" s="6"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13" ht="13">
       <c r="A23" s="6"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" ht="13">
       <c r="A24" s="6"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" ht="13">
       <c r="A25" s="6"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" ht="13">
       <c r="A26" s="6"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" ht="13">
       <c r="A27" s="6"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" ht="13">
       <c r="A28" s="6"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" ht="13">
       <c r="A29" s="6"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13" ht="13">
       <c r="A30" s="6"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" ht="13">
       <c r="A31" s="6"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:13" ht="13">
       <c r="A32" s="6"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:13" ht="13">
       <c r="A33" s="6"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:13" ht="13">
       <c r="A34" s="6"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
     </row>
     <row r="35" spans="1:13" ht="13">
       <c r="A35" s="6"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
     </row>
     <row r="36" spans="1:13" ht="13">
       <c r="A36" s="6"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
     </row>
     <row r="37" spans="1:13" ht="13">
       <c r="A37" s="6"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:13" ht="13">
       <c r="A38" s="6"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
     </row>
     <row r="39" spans="1:13" ht="13">
       <c r="A39" s="6"/>
@@ -14261,8 +14310,8 @@
   </sheetPr>
   <dimension ref="A1:Y974"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -17916,11 +17965,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C689C5-E0CA-2A47-9D03-417D672F6B6E}">
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14">
       <c r="A1" s="8" t="s">
@@ -17972,31 +18024,31 @@
         <v>14</v>
       </c>
       <c r="C2" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D2" s="9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E2" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F2" s="9">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9">
+        <v>100</v>
+      </c>
+      <c r="H2" s="9">
         <v>90</v>
       </c>
-      <c r="H2" s="9">
-        <v>0</v>
-      </c>
       <c r="I2" s="9">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
       </c>
       <c r="K2" s="9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L2" s="9">
         <v>0</v>
@@ -18014,37 +18066,37 @@
         <v>14</v>
       </c>
       <c r="C3" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D3" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E3" s="9">
+        <v>40</v>
+      </c>
+      <c r="F3" s="9">
         <v>60</v>
       </c>
-      <c r="F3" s="9">
-        <v>50</v>
-      </c>
       <c r="G3" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H3" s="9">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I3" s="9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J3" s="9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K3" s="9">
         <v>0</v>
       </c>
       <c r="L3" s="9">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M3" s="9">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N3" s="9"/>
     </row>
@@ -18056,16 +18108,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
       </c>
       <c r="E4" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G4" s="9">
         <v>0</v>
@@ -18074,19 +18126,19 @@
         <v>0</v>
       </c>
       <c r="I4" s="9">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J4" s="9">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K4" s="9">
         <v>0</v>
       </c>
       <c r="L4" s="9">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M4" s="9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N4" s="9"/>
     </row>
@@ -18104,10 +18156,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F5" s="9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
@@ -18116,7 +18168,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="9">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J5" s="9">
         <v>80</v>
@@ -18125,10 +18177,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="M5" s="9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N5" s="9"/>
     </row>
@@ -18146,10 +18198,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F6" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G6" s="9">
         <v>0</v>
@@ -18161,16 +18213,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="9">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="K6" s="9">
         <v>0</v>
       </c>
       <c r="L6" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M6" s="9">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N6" s="9"/>
     </row>
@@ -18188,7 +18240,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
@@ -18197,22 +18249,22 @@
         <v>0</v>
       </c>
       <c r="H7" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I7" s="9">
         <v>0</v>
       </c>
       <c r="J7" s="9">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K7" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L7" s="9">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M7" s="9">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="N7" s="9"/>
     </row>
@@ -18230,7 +18282,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="9">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
@@ -18239,22 +18291,22 @@
         <v>0</v>
       </c>
       <c r="H8" s="9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I8" s="9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="J8" s="9">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
       </c>
       <c r="L8" s="9">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M8" s="9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N8" s="9"/>
     </row>
@@ -18266,34 +18318,34 @@
         <v>17</v>
       </c>
       <c r="C9" s="9">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D9" s="9">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E9" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F9" s="9">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
         <v>100</v>
       </c>
-      <c r="H9" s="9">
-        <v>50</v>
-      </c>
-      <c r="I9" s="9">
-        <v>90</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
       <c r="K9" s="9">
         <v>0</v>
       </c>
       <c r="L9" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M9" s="9">
         <v>0</v>
@@ -18308,25 +18360,25 @@
         <v>14</v>
       </c>
       <c r="C10" s="9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D10" s="9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E10" s="9">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F10" s="9">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G10" s="9">
         <v>100</v>
       </c>
       <c r="H10" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I10" s="9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J10" s="9">
         <v>0</v>
@@ -18350,25 +18402,25 @@
         <v>14</v>
       </c>
       <c r="C11" s="9">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D11" s="9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E11" s="9">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F11" s="9">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G11" s="9">
         <v>100</v>
       </c>
       <c r="H11" s="9">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="I11" s="9">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="J11" s="9">
         <v>0</v>
@@ -18392,25 +18444,25 @@
         <v>14</v>
       </c>
       <c r="C12" s="9">
+        <v>80</v>
+      </c>
+      <c r="D12" s="9">
+        <v>100</v>
+      </c>
+      <c r="E12" s="9">
         <v>60</v>
       </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>20</v>
-      </c>
       <c r="F12" s="9">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G12" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H12" s="9">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="I12" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="9">
         <v>0</v>
@@ -18434,25 +18486,25 @@
         <v>14</v>
       </c>
       <c r="C13" s="9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D13" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E13" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F13" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G13" s="9">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H13" s="9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I13" s="9">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J13" s="9">
         <v>0</v>
@@ -18476,37 +18528,37 @@
         <v>14</v>
       </c>
       <c r="C14" s="9">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D14" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="9">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F14" s="9">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="G14" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="9">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I14" s="9">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K14" s="9">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
       </c>
       <c r="M14" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N14" s="9"/>
     </row>
@@ -18518,37 +18570,37 @@
         <v>17</v>
       </c>
       <c r="C15" s="9">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
       </c>
       <c r="E15" s="9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F15" s="9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G15" s="9">
         <v>0</v>
       </c>
       <c r="H15" s="9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I15" s="9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="J15" s="9">
         <v>0</v>
       </c>
       <c r="K15" s="9">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
       </c>
       <c r="M15" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N15" s="9"/>
     </row>
@@ -18560,34 +18612,34 @@
         <v>30</v>
       </c>
       <c r="C16" s="9">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
       </c>
       <c r="E16" s="9">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F16" s="9">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
       </c>
       <c r="H16" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I16" s="9">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="J16" s="9">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K16" s="9">
         <v>0</v>
       </c>
       <c r="L16" s="9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="M16" s="9">
         <v>0</v>
@@ -18602,13 +18654,13 @@
         <v>30</v>
       </c>
       <c r="C17" s="9">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
       </c>
       <c r="E17" s="9">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F17" s="9">
         <v>80</v>
@@ -18617,10 +18669,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="9">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I17" s="9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J17" s="9">
         <v>0</v>
@@ -18629,7 +18681,7 @@
         <v>0</v>
       </c>
       <c r="L17" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M17" s="9">
         <v>0</v>
@@ -18644,37 +18696,37 @@
         <v>30</v>
       </c>
       <c r="C18" s="9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D18" s="9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E18" s="9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F18" s="9">
         <v>80</v>
       </c>
       <c r="G18" s="9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H18" s="9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I18" s="9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="J18" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K18" s="9">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="L18" s="9">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M18" s="9">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -18695,7 +18747,6 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -18707,7 +18758,6 @@
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
@@ -18721,20 +18771,19 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" spans="1:26" ht="15">
-      <c r="A21" s="10"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="8"/>
+    <row r="21" spans="1:26">
+      <c r="A21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -18748,20 +18797,19 @@
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
     </row>
-    <row r="22" spans="1:26" ht="15">
-      <c r="A22" s="10"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="8"/>
+    <row r="22" spans="1:26">
+      <c r="A22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
@@ -18775,20 +18823,19 @@
       <c r="Y22" s="9"/>
       <c r="Z22" s="9"/>
     </row>
-    <row r="23" spans="1:26" ht="15">
-      <c r="A23" s="10"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="9"/>
+    <row r="23" spans="1:26">
+      <c r="A23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
@@ -18802,20 +18849,19 @@
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
     </row>
-    <row r="24" spans="1:26" ht="15">
-      <c r="A24" s="10"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="9"/>
+    <row r="24" spans="1:26">
+      <c r="A24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
@@ -18830,19 +18876,18 @@
       <c r="Z24" s="9"/>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="11"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="9"/>
+      <c r="A25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -18856,20 +18901,19 @@
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
     </row>
-    <row r="26" spans="1:26" ht="15">
-      <c r="A26" s="10"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="9"/>
+    <row r="26" spans="1:26">
+      <c r="A26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
@@ -18883,20 +18927,19 @@
       <c r="Y26" s="9"/>
       <c r="Z26" s="9"/>
     </row>
-    <row r="27" spans="1:26" ht="15">
-      <c r="A27" s="3"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="9"/>
+    <row r="27" spans="1:26">
+      <c r="A27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -18911,19 +18954,18 @@
       <c r="Z27" s="9"/>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="1"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="9"/>
+      <c r="A28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
@@ -18938,19 +18980,18 @@
       <c r="Z28" s="9"/>
     </row>
     <row r="29" spans="1:26">
-      <c r="A29" s="1"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="9"/>
+      <c r="A29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
@@ -18965,19 +19006,18 @@
       <c r="Z29" s="9"/>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="1"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="9"/>
+      <c r="A30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
@@ -18992,19 +19032,18 @@
       <c r="Z30" s="9"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="1"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="9"/>
+      <c r="A31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
@@ -19019,19 +19058,18 @@
       <c r="Z31" s="9"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="1"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="9"/>
+      <c r="A32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
@@ -19046,19 +19084,18 @@
       <c r="Z32" s="9"/>
     </row>
     <row r="33" spans="1:26">
-      <c r="A33" s="1"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="9"/>
+      <c r="A33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
@@ -19073,19 +19110,18 @@
       <c r="Z33" s="9"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="1"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="9"/>
+      <c r="A34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
@@ -19100,19 +19136,18 @@
       <c r="Z34" s="9"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="1"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="9"/>
+      <c r="A35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="9"/>
@@ -19127,19 +19162,18 @@
       <c r="Z35" s="9"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="1"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="9"/>
+      <c r="A36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="9"/>
@@ -19154,21 +19188,2908 @@
       <c r="Z36" s="9"/>
     </row>
     <row r="37" spans="1:26">
-      <c r="A37" s="1"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="9"/>
+      <c r="A37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:26">
+      <c r="A38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="9"/>
+    </row>
+    <row r="41" spans="1:26">
+      <c r="A41" s="9"/>
+    </row>
+    <row r="42" spans="1:26">
+      <c r="A42" s="9"/>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="A43" s="9"/>
+    </row>
+    <row r="44" spans="1:26">
+      <c r="A44" s="9"/>
+    </row>
+    <row r="45" spans="1:26">
+      <c r="A45" s="9"/>
+    </row>
+    <row r="46" spans="1:26">
+      <c r="A46" s="9"/>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" s="9"/>
+    </row>
+    <row r="48" spans="1:26">
+      <c r="A48" s="9"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="9"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="9"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="9"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="9"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="9"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="9"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="9"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="9"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="C60" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>85</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+      <c r="G2">
+        <v>75</v>
+      </c>
+      <c r="H2">
+        <v>80</v>
+      </c>
+      <c r="I2">
+        <v>65</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>40</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>70</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>40</v>
+      </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>75</v>
+      </c>
+      <c r="I3">
+        <v>85</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>80</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>90</v>
+      </c>
+      <c r="K4">
+        <v>85</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>90</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <v>40</v>
+      </c>
+      <c r="M5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>80</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>80</v>
+      </c>
+      <c r="F7">
+        <v>70</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7">
+        <v>40</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>40</v>
+      </c>
+      <c r="L7">
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15">
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>45</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>80</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>70</v>
+      </c>
+      <c r="I9">
+        <v>90</v>
+      </c>
+      <c r="J9">
+        <v>60</v>
+      </c>
+      <c r="K9">
+        <v>40</v>
+      </c>
+      <c r="L9">
+        <v>95</v>
+      </c>
+      <c r="M9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>85</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>70</v>
+      </c>
+      <c r="H10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>80</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>25</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>85</v>
+      </c>
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>70</v>
+      </c>
+      <c r="F11">
+        <v>60</v>
+      </c>
+      <c r="G11">
+        <v>80</v>
+      </c>
+      <c r="H11">
+        <v>75</v>
+      </c>
+      <c r="I11">
+        <v>95</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>40</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+      <c r="F12">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>70</v>
+      </c>
+      <c r="H12">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>90</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>30</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>70</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>90</v>
+      </c>
+      <c r="E14">
+        <v>70</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>85</v>
+      </c>
+      <c r="H14">
+        <v>75</v>
+      </c>
+      <c r="I14">
+        <v>95</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>40</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>30</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>70</v>
+      </c>
+      <c r="L15">
+        <v>20</v>
+      </c>
+      <c r="M15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>90</v>
+      </c>
+      <c r="F16">
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>80</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>40</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>90</v>
+      </c>
+      <c r="F17">
+        <v>70</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>80</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>40</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>86.7</v>
+      </c>
+      <c r="D18">
+        <v>45.3</v>
+      </c>
+      <c r="E18">
+        <v>90.2</v>
+      </c>
+      <c r="F18">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="G18">
+        <v>34.5</v>
+      </c>
+      <c r="H18">
+        <v>67.8</v>
+      </c>
+      <c r="I18">
+        <v>92.7</v>
+      </c>
+      <c r="J18">
+        <v>21.4</v>
+      </c>
+      <c r="K18">
+        <v>48.9</v>
+      </c>
+      <c r="L18">
+        <v>54.2</v>
+      </c>
+      <c r="M18">
+        <v>14.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A18">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64B3818-3FFC-0B42-A367-E01DC0CC22B6}">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9">
+        <v>20</v>
+      </c>
+      <c r="D2" s="9">
+        <v>60</v>
+      </c>
+      <c r="E2" s="9">
+        <v>40</v>
+      </c>
+      <c r="F2" s="9">
+        <v>20</v>
+      </c>
+      <c r="G2" s="9">
+        <v>60</v>
+      </c>
+      <c r="H2" s="9">
+        <v>40</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9">
+        <v>20</v>
+      </c>
+      <c r="D3" s="9">
+        <v>80</v>
+      </c>
+      <c r="E3" s="9">
+        <v>20</v>
+      </c>
+      <c r="F3" s="9">
+        <v>40</v>
+      </c>
+      <c r="G3" s="9">
+        <v>80</v>
+      </c>
+      <c r="H3" s="9">
+        <v>40</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>80</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>80</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>80</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>80</v>
+      </c>
+      <c r="K7" s="9">
+        <v>80</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>80</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>80</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9">
+        <v>80</v>
+      </c>
+      <c r="D10" s="9">
+        <v>80</v>
+      </c>
+      <c r="E10" s="9">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9">
+        <v>20</v>
+      </c>
+      <c r="G10" s="9">
+        <v>40</v>
+      </c>
+      <c r="H10" s="9">
+        <v>40</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9">
+        <v>40</v>
+      </c>
+      <c r="D11" s="9">
+        <v>80</v>
+      </c>
+      <c r="E11" s="9">
+        <v>60</v>
+      </c>
+      <c r="F11" s="9">
+        <v>20</v>
+      </c>
+      <c r="G11" s="9">
+        <v>60</v>
+      </c>
+      <c r="H11" s="9">
+        <v>40</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9">
+        <v>60</v>
+      </c>
+      <c r="D12" s="9">
+        <v>80</v>
+      </c>
+      <c r="E12" s="9">
+        <v>20</v>
+      </c>
+      <c r="F12" s="9">
+        <v>20</v>
+      </c>
+      <c r="G12" s="9">
+        <v>40</v>
+      </c>
+      <c r="H12" s="9">
+        <v>40</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9">
+        <v>20</v>
+      </c>
+      <c r="E13" s="9">
+        <v>80</v>
+      </c>
+      <c r="F13" s="9">
+        <v>20</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>80</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9">
+        <v>40</v>
+      </c>
+      <c r="D14" s="9">
+        <v>80</v>
+      </c>
+      <c r="E14" s="9">
+        <v>60</v>
+      </c>
+      <c r="F14" s="9">
+        <v>20</v>
+      </c>
+      <c r="G14" s="9">
+        <v>60</v>
+      </c>
+      <c r="H14" s="9">
+        <v>40</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>80</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>80</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>80</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>80</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC5D31F-2281-9F41-8B63-D11C2A06C42A}">
+  <dimension ref="A1:M52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9">
+        <v>70</v>
+      </c>
+      <c r="D2" s="9">
+        <v>90</v>
+      </c>
+      <c r="E2" s="9">
+        <v>80</v>
+      </c>
+      <c r="F2" s="9">
+        <v>90</v>
+      </c>
+      <c r="G2" s="9">
+        <v>80</v>
+      </c>
+      <c r="H2" s="9">
+        <v>70</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9">
+        <v>50</v>
+      </c>
+      <c r="D3" s="9">
+        <v>100</v>
+      </c>
+      <c r="E3" s="9">
+        <v>70</v>
+      </c>
+      <c r="F3" s="9">
+        <v>80</v>
+      </c>
+      <c r="G3" s="9">
+        <v>100</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>60</v>
+      </c>
+      <c r="J4" s="9">
+        <v>100</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>80</v>
+      </c>
+      <c r="M4" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>70</v>
+      </c>
+      <c r="J5" s="9">
+        <v>100</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>80</v>
+      </c>
+      <c r="M5" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>100</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+      <c r="M6" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>90</v>
+      </c>
+      <c r="K7" s="9">
+        <v>100</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>80</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>100</v>
+      </c>
+      <c r="M8" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>100</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>90</v>
+      </c>
+      <c r="M9" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9">
+        <v>100</v>
+      </c>
+      <c r="D10" s="9">
+        <v>90</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>80</v>
+      </c>
+      <c r="G10" s="9">
+        <v>90</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>90</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9">
+        <v>100</v>
+      </c>
+      <c r="D11" s="9">
+        <v>100</v>
+      </c>
+      <c r="E11" s="9">
+        <v>90</v>
+      </c>
+      <c r="F11" s="9">
+        <v>80</v>
+      </c>
+      <c r="G11" s="9">
+        <v>90</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9">
+        <v>100</v>
+      </c>
+      <c r="D12" s="9">
+        <v>90</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
+        <v>90</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>80</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9">
+        <v>80</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>100</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="9">
+        <v>100</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9">
+        <v>90</v>
+      </c>
+      <c r="D14" s="9">
+        <v>80</v>
+      </c>
+      <c r="E14" s="9">
+        <v>90</v>
+      </c>
+      <c r="F14" s="9">
+        <v>100</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>70</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>90</v>
+      </c>
+      <c r="K15" s="9">
+        <v>100</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>100</v>
+      </c>
+      <c r="F16" s="9">
+        <v>90</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <v>80</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>70</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>90</v>
+      </c>
+      <c r="F17" s="9">
+        <v>100</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <v>80</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>90</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9">
+        <v>100</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>90</v>
+      </c>
+      <c r="F18" s="9">
+        <v>90</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>100</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>90</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -19181,9 +22102,9 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-    </row>
-    <row r="39" spans="1:26">
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
@@ -19197,7 +22118,8 @@
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:13">
+      <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -19211,231 +22133,3812 @@
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
     </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+    </row>
+    <row r="43" spans="1:13" ht="18">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+    </row>
+    <row r="47" spans="1:13" ht="18">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+    </row>
+    <row r="49" spans="1:2" ht="18">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+    </row>
+    <row r="52" spans="1:2" ht="18">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348BF925-D5FF-3241-A200-B43B569DAB9F}">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:L38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9">
+        <v>20</v>
+      </c>
+      <c r="C2" s="9">
+        <v>80</v>
+      </c>
+      <c r="D2" s="9">
+        <v>40</v>
+      </c>
+      <c r="E2" s="9">
+        <v>20</v>
+      </c>
+      <c r="F2" s="9">
+        <v>60</v>
+      </c>
+      <c r="G2" s="9">
+        <v>40</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="9">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9">
+        <v>80</v>
+      </c>
+      <c r="D3" s="9">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9">
+        <v>40</v>
+      </c>
+      <c r="F3" s="9">
+        <v>80</v>
+      </c>
+      <c r="G3" s="9">
+        <v>40</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
+        <v>80</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>80</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>80</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>80</v>
+      </c>
+      <c r="J7" s="9">
+        <v>80</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>80</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>80</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="9">
+        <v>80</v>
+      </c>
+      <c r="C10" s="9">
+        <v>80</v>
+      </c>
+      <c r="D10" s="9">
+        <v>20</v>
+      </c>
+      <c r="E10" s="9">
+        <v>20</v>
+      </c>
+      <c r="F10" s="9">
+        <v>40</v>
+      </c>
+      <c r="G10" s="9">
+        <v>40</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="9">
+        <v>40</v>
+      </c>
+      <c r="C11" s="9">
+        <v>80</v>
+      </c>
+      <c r="D11" s="9">
+        <v>60</v>
+      </c>
+      <c r="E11" s="9">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9">
+        <v>60</v>
+      </c>
+      <c r="G11" s="9">
+        <v>40</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="9">
+        <v>60</v>
+      </c>
+      <c r="C12" s="9">
+        <v>80</v>
+      </c>
+      <c r="D12" s="9">
+        <v>20</v>
+      </c>
+      <c r="E12" s="9">
+        <v>20</v>
+      </c>
+      <c r="F12" s="9">
+        <v>40</v>
+      </c>
+      <c r="G12" s="9">
+        <v>40</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="9">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9">
+        <v>80</v>
+      </c>
+      <c r="E13" s="9">
+        <v>20</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>80</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="9">
+        <v>40</v>
+      </c>
+      <c r="C14" s="9">
+        <v>80</v>
+      </c>
+      <c r="D14" s="9">
+        <v>60</v>
+      </c>
+      <c r="E14" s="9">
+        <v>20</v>
+      </c>
+      <c r="F14" s="9">
+        <v>60</v>
+      </c>
+      <c r="G14" s="9">
+        <v>40</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>80</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>80</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>80</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9">
+        <v>80</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="9">
+        <v>20</v>
+      </c>
+      <c r="C22" s="9">
+        <v>60</v>
+      </c>
+      <c r="D22" s="9">
+        <v>40</v>
+      </c>
+      <c r="E22" s="9">
+        <v>20</v>
+      </c>
+      <c r="F22" s="9">
+        <v>60</v>
+      </c>
+      <c r="G22" s="9">
+        <v>40</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="9">
+        <v>20</v>
+      </c>
+      <c r="C23" s="9">
+        <v>80</v>
+      </c>
+      <c r="D23" s="9">
+        <v>20</v>
+      </c>
+      <c r="E23" s="9">
+        <v>40</v>
+      </c>
+      <c r="F23" s="9">
+        <v>80</v>
+      </c>
+      <c r="G23" s="9">
+        <v>40</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>80</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>80</v>
+      </c>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>80</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="9">
+        <v>0</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>80</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+      <c r="K26" s="9">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>80</v>
+      </c>
+      <c r="J27" s="9">
+        <v>80</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>80</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="9">
+        <v>0</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="9">
+        <v>0</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>80</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="9">
+        <v>80</v>
+      </c>
+      <c r="C30" s="9">
+        <v>80</v>
+      </c>
+      <c r="D30" s="9">
+        <v>20</v>
+      </c>
+      <c r="E30" s="9">
+        <v>20</v>
+      </c>
+      <c r="F30" s="9">
+        <v>40</v>
+      </c>
+      <c r="G30" s="9">
+        <v>40</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="9">
+        <v>40</v>
+      </c>
+      <c r="C31" s="9">
+        <v>80</v>
+      </c>
+      <c r="D31" s="9">
+        <v>60</v>
+      </c>
+      <c r="E31" s="9">
+        <v>20</v>
+      </c>
+      <c r="F31" s="9">
+        <v>60</v>
+      </c>
+      <c r="G31" s="9">
+        <v>40</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="9">
+        <v>60</v>
+      </c>
+      <c r="C32" s="9">
+        <v>80</v>
+      </c>
+      <c r="D32" s="9">
+        <v>20</v>
+      </c>
+      <c r="E32" s="9">
+        <v>20</v>
+      </c>
+      <c r="F32" s="9">
+        <v>40</v>
+      </c>
+      <c r="G32" s="9">
+        <v>40</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="9">
+        <v>20</v>
+      </c>
+      <c r="C33" s="9">
+        <v>20</v>
+      </c>
+      <c r="D33" s="9">
+        <v>80</v>
+      </c>
+      <c r="E33" s="9">
+        <v>20</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0</v>
+      </c>
+      <c r="G33" s="9">
+        <v>80</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="9">
+        <v>40</v>
+      </c>
+      <c r="C34" s="9">
+        <v>80</v>
+      </c>
+      <c r="D34" s="9">
+        <v>60</v>
+      </c>
+      <c r="E34" s="9">
+        <v>20</v>
+      </c>
+      <c r="F34" s="9">
+        <v>60</v>
+      </c>
+      <c r="G34" s="9">
+        <v>40</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="9">
+        <v>0</v>
+      </c>
+      <c r="C35" s="9">
+        <v>0</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9">
+        <v>80</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="9">
+        <v>0</v>
+      </c>
+      <c r="C36" s="9">
+        <v>0</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <v>80</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="9">
+        <v>0</v>
+      </c>
+      <c r="C37" s="9">
+        <v>0</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>80</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="9">
+        <v>0</v>
+      </c>
+      <c r="C38" s="9">
+        <v>0</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9">
+        <v>0</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9">
+        <v>80</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0</v>
+      </c>
+      <c r="K38" s="9">
+        <v>0</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB89AF6-607F-CC4F-A8D7-D9738F886BB3}">
+  <dimension ref="A1:Z60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40:M56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="14">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="9">
+        <v>30</v>
+      </c>
+      <c r="D2" s="9">
+        <v>70</v>
+      </c>
+      <c r="E2" s="9">
+        <v>40</v>
+      </c>
+      <c r="F2" s="9">
+        <v>30</v>
+      </c>
+      <c r="G2" s="9">
+        <v>90</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0</v>
+      </c>
+      <c r="I2" s="9">
+        <v>70</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0</v>
+      </c>
+      <c r="K2" s="9">
+        <v>60</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
+        <v>60</v>
+      </c>
+      <c r="F3" s="9">
+        <v>50</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="9">
+        <v>90</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <v>70</v>
+      </c>
+      <c r="M3" s="9">
+        <v>80</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9">
+        <v>40</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>50</v>
+      </c>
+      <c r="F4" s="9">
+        <v>60</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <v>60</v>
+      </c>
+      <c r="J4" s="9">
+        <v>70</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9">
+        <v>60</v>
+      </c>
+      <c r="M4" s="9">
+        <v>50</v>
+      </c>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
+        <v>30</v>
+      </c>
+      <c r="F5" s="9">
+        <v>30</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="9">
+        <v>80</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>40</v>
+      </c>
+      <c r="M5" s="9">
+        <v>50</v>
+      </c>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>60</v>
+      </c>
+      <c r="F6" s="9">
+        <v>40</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>80</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>50</v>
+      </c>
+      <c r="M6" s="9">
+        <v>70</v>
+      </c>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>40</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>50</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>30</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>80</v>
+      </c>
+      <c r="M7" s="9">
+        <v>70</v>
+      </c>
+      <c r="N7" s="9"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>80</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>60</v>
+      </c>
+      <c r="I8" s="9">
+        <v>60</v>
+      </c>
+      <c r="J8" s="9">
+        <v>70</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0</v>
+      </c>
+      <c r="L8" s="9">
+        <v>80</v>
+      </c>
+      <c r="M8" s="9">
+        <v>70</v>
+      </c>
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9">
+        <v>70</v>
+      </c>
+      <c r="D9" s="9">
+        <v>80</v>
+      </c>
+      <c r="E9" s="9">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9">
+        <v>70</v>
+      </c>
+      <c r="G9" s="9">
+        <v>100</v>
+      </c>
+      <c r="H9" s="9">
+        <v>50</v>
+      </c>
+      <c r="I9" s="9">
+        <v>90</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9">
+        <v>70</v>
+      </c>
+      <c r="D10" s="9">
+        <v>70</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>60</v>
+      </c>
+      <c r="G10" s="9">
+        <v>100</v>
+      </c>
+      <c r="H10" s="9">
+        <v>40</v>
+      </c>
+      <c r="I10" s="9">
+        <v>90</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9">
+        <v>70</v>
+      </c>
+      <c r="D11" s="9">
+        <v>70</v>
+      </c>
+      <c r="E11" s="9">
+        <v>65</v>
+      </c>
+      <c r="F11" s="9">
+        <v>65</v>
+      </c>
+      <c r="G11" s="9">
+        <v>100</v>
+      </c>
+      <c r="H11" s="9">
+        <v>20</v>
+      </c>
+      <c r="I11" s="9">
+        <v>80</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9">
+        <v>60</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>20</v>
+      </c>
+      <c r="F12" s="9">
+        <v>40</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>90</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9">
+        <v>50</v>
+      </c>
+      <c r="D13" s="9">
+        <v>20</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>40</v>
+      </c>
+      <c r="G13" s="9">
+        <v>40</v>
+      </c>
+      <c r="H13" s="9">
+        <v>70</v>
+      </c>
+      <c r="I13" s="9">
+        <v>30</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>50</v>
+      </c>
+      <c r="F14" s="9">
+        <v>55</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>10</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>50</v>
+      </c>
+      <c r="K14" s="9">
+        <v>70</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
+        <v>20</v>
+      </c>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9">
+        <v>65</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>90</v>
+      </c>
+      <c r="F15" s="9">
+        <v>90</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>60</v>
+      </c>
+      <c r="I15" s="9">
+        <v>90</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>60</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9">
+        <v>10</v>
+      </c>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="9">
+        <v>75</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>95</v>
+      </c>
+      <c r="F16" s="9">
+        <v>80</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9">
+        <v>50</v>
+      </c>
+      <c r="I16" s="9">
+        <v>85</v>
+      </c>
+      <c r="J16" s="9">
+        <v>70</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
+        <v>60</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9">
+        <v>90</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>70</v>
+      </c>
+      <c r="F17" s="9">
+        <v>80</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="9">
+        <v>70</v>
+      </c>
+      <c r="I17" s="9">
+        <v>90</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
+        <v>50</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9">
+        <v>90</v>
+      </c>
+      <c r="D18" s="9">
+        <v>60</v>
+      </c>
+      <c r="E18" s="9">
+        <v>90</v>
+      </c>
+      <c r="F18" s="9">
+        <v>80</v>
+      </c>
+      <c r="G18" s="9">
+        <v>50</v>
+      </c>
+      <c r="H18" s="9">
+        <v>60</v>
+      </c>
+      <c r="I18" s="9">
+        <v>90</v>
+      </c>
+      <c r="J18" s="9">
+        <v>20</v>
+      </c>
+      <c r="K18" s="9">
+        <v>70</v>
+      </c>
+      <c r="L18" s="9">
+        <v>70</v>
+      </c>
+      <c r="M18" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9">
+        <v>60</v>
+      </c>
+      <c r="D21" s="9">
+        <v>100</v>
+      </c>
+      <c r="E21" s="9">
+        <v>80</v>
+      </c>
+      <c r="F21" s="9">
+        <v>90</v>
+      </c>
+      <c r="G21" s="9">
+        <v>100</v>
+      </c>
+      <c r="H21" s="9">
+        <v>90</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="9">
+        <v>40</v>
+      </c>
+      <c r="D22" s="9">
+        <v>100</v>
+      </c>
+      <c r="E22" s="9">
+        <v>60</v>
+      </c>
+      <c r="F22" s="9">
+        <v>80</v>
+      </c>
+      <c r="G22" s="9">
+        <v>100</v>
+      </c>
+      <c r="H22" s="9">
+        <v>70</v>
+      </c>
+      <c r="I22" s="9">
+        <v>80</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="9">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>10</v>
+      </c>
+      <c r="F23" s="9">
+        <v>10</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9">
+        <v>100</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9">
+        <v>90</v>
+      </c>
+      <c r="M23" s="9">
+        <v>100</v>
+      </c>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="9">
+        <v>20</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>20</v>
+      </c>
+      <c r="F24" s="9">
+        <v>20</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0</v>
+      </c>
+      <c r="I24" s="9">
+        <v>100</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9">
+        <v>80</v>
+      </c>
+      <c r="M24" s="9">
+        <v>100</v>
+      </c>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="9">
+        <v>0</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <v>100</v>
+      </c>
+      <c r="K25" s="9">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="9">
+        <v>0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>100</v>
+      </c>
+      <c r="K26" s="9">
+        <v>100</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0</v>
+      </c>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+      <c r="K27" s="9">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9">
+        <v>100</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9">
+        <v>100</v>
+      </c>
+      <c r="K28" s="9">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9">
+        <v>100</v>
+      </c>
+      <c r="M28" s="9">
+        <v>0</v>
+      </c>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="9">
+        <v>100</v>
+      </c>
+      <c r="D29" s="9">
+        <v>100</v>
+      </c>
+      <c r="E29" s="9">
+        <v>80</v>
+      </c>
+      <c r="F29" s="9">
+        <v>80</v>
+      </c>
+      <c r="G29" s="9">
+        <v>100</v>
+      </c>
+      <c r="H29" s="9">
+        <v>70</v>
+      </c>
+      <c r="I29" s="9">
+        <v>100</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0</v>
+      </c>
+      <c r="K29" s="9">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="9">
+        <v>80</v>
+      </c>
+      <c r="D30" s="9">
+        <v>100</v>
+      </c>
+      <c r="E30" s="9">
+        <v>90</v>
+      </c>
+      <c r="F30" s="9">
+        <v>80</v>
+      </c>
+      <c r="G30" s="9">
+        <v>100</v>
+      </c>
+      <c r="H30" s="9">
+        <v>70</v>
+      </c>
+      <c r="I30" s="9">
+        <v>100</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9">
+        <v>0</v>
+      </c>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="9">
+        <v>80</v>
+      </c>
+      <c r="D31" s="9">
+        <v>100</v>
+      </c>
+      <c r="E31" s="9">
+        <v>60</v>
+      </c>
+      <c r="F31" s="9">
+        <v>80</v>
+      </c>
+      <c r="G31" s="9">
+        <v>100</v>
+      </c>
+      <c r="H31" s="9">
+        <v>70</v>
+      </c>
+      <c r="I31" s="9">
+        <v>100</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="9">
+        <v>40</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9">
+        <v>100</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="9">
+        <v>100</v>
+      </c>
+      <c r="I32" s="9">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0</v>
+      </c>
+      <c r="K32" s="9">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="9">
+        <v>80</v>
+      </c>
+      <c r="D33" s="9">
+        <v>100</v>
+      </c>
+      <c r="E33" s="9">
+        <v>80</v>
+      </c>
+      <c r="F33" s="9">
+        <v>80</v>
+      </c>
+      <c r="G33" s="9">
+        <v>100</v>
+      </c>
+      <c r="H33" s="9">
+        <v>70</v>
+      </c>
+      <c r="I33" s="9">
+        <v>100</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0</v>
+      </c>
+      <c r="K33" s="9">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9">
+        <v>0</v>
+      </c>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="9">
+        <v>0</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <v>100</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <v>0</v>
+      </c>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="9">
+        <v>80</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
+        <v>100</v>
+      </c>
+      <c r="F35" s="9">
+        <v>100</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0</v>
+      </c>
+      <c r="I35" s="9">
+        <v>100</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9">
+        <v>0</v>
+      </c>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="9">
+        <v>60</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
+        <v>100</v>
+      </c>
+      <c r="F36" s="9">
+        <v>80</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0</v>
+      </c>
+      <c r="I36" s="9">
+        <v>100</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0</v>
+      </c>
+      <c r="K36" s="9">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0</v>
+      </c>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="9">
+        <v>100</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9">
+        <v>100</v>
+      </c>
+      <c r="F37" s="9">
+        <v>80</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>100</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:26">
+      <c r="A39" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
+      <c r="A40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="9">
+        <v>60</v>
+      </c>
+      <c r="D40" s="9">
+        <v>100</v>
+      </c>
+      <c r="E40" s="9">
+        <v>80</v>
+      </c>
+      <c r="F40" s="9">
+        <v>90</v>
+      </c>
+      <c r="G40" s="9">
+        <v>100</v>
+      </c>
+      <c r="H40" s="9">
+        <v>90</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0</v>
+      </c>
+      <c r="J40" s="9">
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
+        <v>0</v>
+      </c>
+    </row>
     <row r="41" spans="1:26">
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
+      <c r="A41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="9">
+        <v>20</v>
+      </c>
+      <c r="D41" s="9">
+        <v>100</v>
+      </c>
+      <c r="E41" s="9">
+        <v>40</v>
+      </c>
+      <c r="F41" s="9">
+        <v>60</v>
+      </c>
+      <c r="G41" s="9">
+        <v>100</v>
+      </c>
+      <c r="H41" s="9">
+        <v>40</v>
+      </c>
+      <c r="I41" s="9">
+        <v>60</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0</v>
+      </c>
+      <c r="L41" s="9">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:26">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
+      <c r="A42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="9">
+        <v>0</v>
+      </c>
+      <c r="D42" s="9">
+        <v>0</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9">
+        <v>10</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0</v>
+      </c>
+      <c r="I42" s="9">
+        <v>80</v>
+      </c>
+      <c r="J42" s="9">
+        <v>80</v>
+      </c>
+      <c r="K42" s="9">
+        <v>0</v>
+      </c>
+      <c r="L42" s="9">
+        <v>80</v>
+      </c>
+      <c r="M42" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="43" spans="1:26">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
+      <c r="A43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="9">
+        <v>0</v>
+      </c>
+      <c r="D43" s="9">
+        <v>0</v>
+      </c>
+      <c r="E43" s="9">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
+        <v>10</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0</v>
+      </c>
+      <c r="I43" s="9">
+        <v>80</v>
+      </c>
+      <c r="J43" s="9">
+        <v>80</v>
+      </c>
+      <c r="K43" s="9">
+        <v>0</v>
+      </c>
+      <c r="L43" s="9">
+        <v>80</v>
+      </c>
+      <c r="M43" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="44" spans="1:26">
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
+      <c r="A44" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="9">
+        <v>0</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0</v>
+      </c>
+      <c r="I44" s="9">
+        <v>0</v>
+      </c>
+      <c r="J44" s="9">
+        <v>100</v>
+      </c>
+      <c r="K44" s="9">
+        <v>0</v>
+      </c>
+      <c r="L44" s="9">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:26">
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
+      <c r="A45" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="9">
+        <v>0</v>
+      </c>
+      <c r="D45" s="9">
+        <v>0</v>
+      </c>
+      <c r="E45" s="9">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0</v>
+      </c>
+      <c r="J45" s="9">
+        <v>100</v>
+      </c>
+      <c r="K45" s="9">
+        <v>100</v>
+      </c>
+      <c r="L45" s="9">
+        <v>0</v>
+      </c>
+      <c r="M45" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:26">
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
+      <c r="A46" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="9">
+        <v>0</v>
+      </c>
+      <c r="D46" s="9">
+        <v>0</v>
+      </c>
+      <c r="E46" s="9">
+        <v>0</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9">
+        <v>0</v>
+      </c>
+      <c r="M46" s="9">
+        <v>100</v>
+      </c>
     </row>
     <row r="47" spans="1:26">
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
+      <c r="A47" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="9">
+        <v>0</v>
+      </c>
+      <c r="D47" s="9">
+        <v>0</v>
+      </c>
+      <c r="E47" s="9">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9">
+        <v>0</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0</v>
+      </c>
+      <c r="J47" s="9">
+        <v>100</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <v>100</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:26">
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-    </row>
-    <row r="49" spans="2:13">
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-    </row>
-    <row r="50" spans="2:13">
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-    </row>
-    <row r="51" spans="2:13">
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-    </row>
-    <row r="52" spans="2:13">
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-    </row>
-    <row r="53" spans="2:13">
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-    </row>
-    <row r="54" spans="2:13">
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-    </row>
-    <row r="55" spans="2:13">
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-    </row>
-    <row r="56" spans="2:13">
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-    </row>
-    <row r="57" spans="2:13">
+      <c r="A48" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="9">
+        <v>100</v>
+      </c>
+      <c r="D48" s="9">
+        <v>100</v>
+      </c>
+      <c r="E48" s="9">
+        <v>80</v>
+      </c>
+      <c r="F48" s="9">
+        <v>80</v>
+      </c>
+      <c r="G48" s="9">
+        <v>100</v>
+      </c>
+      <c r="H48" s="9">
+        <v>70</v>
+      </c>
+      <c r="I48" s="9">
+        <v>100</v>
+      </c>
+      <c r="J48" s="9">
+        <v>0</v>
+      </c>
+      <c r="K48" s="9">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9">
+        <v>0</v>
+      </c>
+      <c r="M48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="9">
+        <v>80</v>
+      </c>
+      <c r="D49" s="9">
+        <v>100</v>
+      </c>
+      <c r="E49" s="9">
+        <v>90</v>
+      </c>
+      <c r="F49" s="9">
+        <v>80</v>
+      </c>
+      <c r="G49" s="9">
+        <v>100</v>
+      </c>
+      <c r="H49" s="9">
+        <v>70</v>
+      </c>
+      <c r="I49" s="9">
+        <v>100</v>
+      </c>
+      <c r="J49" s="9">
+        <v>0</v>
+      </c>
+      <c r="K49" s="9">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9">
+        <v>0</v>
+      </c>
+      <c r="M49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="9">
+        <v>80</v>
+      </c>
+      <c r="D50" s="9">
+        <v>100</v>
+      </c>
+      <c r="E50" s="9">
+        <v>60</v>
+      </c>
+      <c r="F50" s="9">
+        <v>80</v>
+      </c>
+      <c r="G50" s="9">
+        <v>100</v>
+      </c>
+      <c r="H50" s="9">
+        <v>70</v>
+      </c>
+      <c r="I50" s="9">
+        <v>100</v>
+      </c>
+      <c r="J50" s="9">
+        <v>0</v>
+      </c>
+      <c r="K50" s="9">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9">
+        <v>0</v>
+      </c>
+      <c r="M50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="9">
+        <v>40</v>
+      </c>
+      <c r="D51" s="9">
+        <v>0</v>
+      </c>
+      <c r="E51" s="9">
+        <v>100</v>
+      </c>
+      <c r="F51" s="9">
+        <v>0</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0</v>
+      </c>
+      <c r="H51" s="9">
+        <v>100</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0</v>
+      </c>
+      <c r="J51" s="9">
+        <v>0</v>
+      </c>
+      <c r="K51" s="9">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9">
+        <v>0</v>
+      </c>
+      <c r="M51" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="9">
+        <v>80</v>
+      </c>
+      <c r="D52" s="9">
+        <v>100</v>
+      </c>
+      <c r="E52" s="9">
+        <v>80</v>
+      </c>
+      <c r="F52" s="9">
+        <v>80</v>
+      </c>
+      <c r="G52" s="9">
+        <v>100</v>
+      </c>
+      <c r="H52" s="9">
+        <v>70</v>
+      </c>
+      <c r="I52" s="9">
+        <v>100</v>
+      </c>
+      <c r="J52" s="9">
+        <v>0</v>
+      </c>
+      <c r="K52" s="9">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9">
+        <v>0</v>
+      </c>
+      <c r="M52" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="9">
+        <v>0</v>
+      </c>
+      <c r="D53" s="9">
+        <v>0</v>
+      </c>
+      <c r="E53" s="9">
+        <v>0</v>
+      </c>
+      <c r="F53" s="9">
+        <v>0</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0</v>
+      </c>
+      <c r="J53" s="9">
+        <v>0</v>
+      </c>
+      <c r="K53" s="9">
+        <v>100</v>
+      </c>
+      <c r="L53" s="9">
+        <v>0</v>
+      </c>
+      <c r="M53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="9">
+        <v>80</v>
+      </c>
+      <c r="D54" s="9">
+        <v>0</v>
+      </c>
+      <c r="E54" s="9">
+        <v>100</v>
+      </c>
+      <c r="F54" s="9">
+        <v>100</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0</v>
+      </c>
+      <c r="H54" s="9">
+        <v>0</v>
+      </c>
+      <c r="I54" s="9">
+        <v>100</v>
+      </c>
+      <c r="J54" s="9">
+        <v>0</v>
+      </c>
+      <c r="K54" s="9">
+        <v>0</v>
+      </c>
+      <c r="L54" s="9">
+        <v>0</v>
+      </c>
+      <c r="M54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="9">
+        <v>60</v>
+      </c>
+      <c r="D55" s="9">
+        <v>0</v>
+      </c>
+      <c r="E55" s="9">
+        <v>100</v>
+      </c>
+      <c r="F55" s="9">
+        <v>80</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0</v>
+      </c>
+      <c r="I55" s="9">
+        <v>100</v>
+      </c>
+      <c r="J55" s="9">
+        <v>0</v>
+      </c>
+      <c r="K55" s="9">
+        <v>0</v>
+      </c>
+      <c r="L55" s="9">
+        <v>0</v>
+      </c>
+      <c r="M55" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="9">
+        <v>100</v>
+      </c>
+      <c r="D56" s="9">
+        <v>0</v>
+      </c>
+      <c r="E56" s="9">
+        <v>100</v>
+      </c>
+      <c r="F56" s="9">
+        <v>80</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9">
+        <v>0</v>
+      </c>
+      <c r="I56" s="9">
+        <v>100</v>
+      </c>
+      <c r="J56" s="9">
+        <v>0</v>
+      </c>
+      <c r="K56" s="9">
+        <v>0</v>
+      </c>
+      <c r="L56" s="9">
+        <v>0</v>
+      </c>
+      <c r="M56" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -19449,7 +25952,7 @@
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="1:13">
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -19463,776 +25966,10 @@
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="1:13">
       <c r="C60" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A21:A37">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(A21))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:M18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
-        <v>85</v>
-      </c>
-      <c r="D2">
-        <v>90</v>
-      </c>
-      <c r="E2">
-        <v>70</v>
-      </c>
-      <c r="F2">
-        <v>60</v>
-      </c>
-      <c r="G2">
-        <v>75</v>
-      </c>
-      <c r="H2">
-        <v>80</v>
-      </c>
-      <c r="I2">
-        <v>65</v>
-      </c>
-      <c r="J2">
-        <v>20</v>
-      </c>
-      <c r="K2">
-        <v>40</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>70</v>
-      </c>
-      <c r="D3">
-        <v>80</v>
-      </c>
-      <c r="E3">
-        <v>60</v>
-      </c>
-      <c r="F3">
-        <v>40</v>
-      </c>
-      <c r="G3">
-        <v>90</v>
-      </c>
-      <c r="H3">
-        <v>75</v>
-      </c>
-      <c r="I3">
-        <v>85</v>
-      </c>
-      <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>30</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15">
-      <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>80</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>90</v>
-      </c>
-      <c r="K4">
-        <v>85</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>80</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>60</v>
-      </c>
-      <c r="F5">
-        <v>70</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>40</v>
-      </c>
-      <c r="I5">
-        <v>90</v>
-      </c>
-      <c r="J5">
-        <v>20</v>
-      </c>
-      <c r="K5">
-        <v>50</v>
-      </c>
-      <c r="L5">
-        <v>40</v>
-      </c>
-      <c r="M5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>80</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>80</v>
-      </c>
-      <c r="F7">
-        <v>70</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <v>30</v>
-      </c>
-      <c r="I7">
-        <v>40</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>40</v>
-      </c>
-      <c r="L7">
-        <v>20</v>
-      </c>
-      <c r="M7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>30</v>
-      </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-      <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>35</v>
-      </c>
-      <c r="I8">
-        <v>15</v>
-      </c>
-      <c r="J8">
-        <v>45</v>
-      </c>
-      <c r="K8">
-        <v>20</v>
-      </c>
-      <c r="L8">
-        <v>50</v>
-      </c>
-      <c r="M8">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>50</v>
-      </c>
-      <c r="F9">
-        <v>80</v>
-      </c>
-      <c r="G9">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>70</v>
-      </c>
-      <c r="I9">
-        <v>90</v>
-      </c>
-      <c r="J9">
-        <v>60</v>
-      </c>
-      <c r="K9">
-        <v>40</v>
-      </c>
-      <c r="L9">
-        <v>95</v>
-      </c>
-      <c r="M9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>85</v>
-      </c>
-      <c r="D10">
-        <v>90</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>70</v>
-      </c>
-      <c r="H10">
-        <v>20</v>
-      </c>
-      <c r="I10">
-        <v>80</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10">
-        <v>25</v>
-      </c>
-      <c r="L10">
-        <v>5</v>
-      </c>
-      <c r="M10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>85</v>
-      </c>
-      <c r="D11">
-        <v>90</v>
-      </c>
-      <c r="E11">
-        <v>70</v>
-      </c>
-      <c r="F11">
-        <v>60</v>
-      </c>
-      <c r="G11">
-        <v>80</v>
-      </c>
-      <c r="H11">
-        <v>75</v>
-      </c>
-      <c r="I11">
-        <v>95</v>
-      </c>
-      <c r="J11">
-        <v>20</v>
-      </c>
-      <c r="K11">
-        <v>40</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>85</v>
-      </c>
-      <c r="D12">
-        <v>75</v>
-      </c>
-      <c r="E12">
-        <v>60</v>
-      </c>
-      <c r="F12">
-        <v>40</v>
-      </c>
-      <c r="G12">
-        <v>70</v>
-      </c>
-      <c r="H12">
-        <v>80</v>
-      </c>
-      <c r="I12">
-        <v>90</v>
-      </c>
-      <c r="J12">
-        <v>20</v>
-      </c>
-      <c r="K12">
-        <v>30</v>
-      </c>
-      <c r="L12">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>60</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13">
-        <v>5</v>
-      </c>
-      <c r="H13">
-        <v>70</v>
-      </c>
-      <c r="I13">
-        <v>10</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>5</v>
-      </c>
-      <c r="L13">
-        <v>5</v>
-      </c>
-      <c r="M13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>80</v>
-      </c>
-      <c r="D14">
-        <v>90</v>
-      </c>
-      <c r="E14">
-        <v>70</v>
-      </c>
-      <c r="F14">
-        <v>60</v>
-      </c>
-      <c r="G14">
-        <v>85</v>
-      </c>
-      <c r="H14">
-        <v>75</v>
-      </c>
-      <c r="I14">
-        <v>95</v>
-      </c>
-      <c r="J14">
-        <v>20</v>
-      </c>
-      <c r="K14">
-        <v>40</v>
-      </c>
-      <c r="L14">
-        <v>10</v>
-      </c>
-      <c r="M14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>20</v>
-      </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="E15">
-        <v>40</v>
-      </c>
-      <c r="F15">
-        <v>60</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>30</v>
-      </c>
-      <c r="I15">
-        <v>20</v>
-      </c>
-      <c r="J15">
-        <v>10</v>
-      </c>
-      <c r="K15">
-        <v>70</v>
-      </c>
-      <c r="L15">
-        <v>20</v>
-      </c>
-      <c r="M15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <v>85</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>90</v>
-      </c>
-      <c r="F16">
-        <v>70</v>
-      </c>
-      <c r="G16">
-        <v>15</v>
-      </c>
-      <c r="H16">
-        <v>20</v>
-      </c>
-      <c r="I16">
-        <v>80</v>
-      </c>
-      <c r="J16">
-        <v>5</v>
-      </c>
-      <c r="K16">
-        <v>40</v>
-      </c>
-      <c r="L16">
-        <v>10</v>
-      </c>
-      <c r="M16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>85</v>
-      </c>
-      <c r="D17">
-        <v>10</v>
-      </c>
-      <c r="E17">
-        <v>90</v>
-      </c>
-      <c r="F17">
-        <v>70</v>
-      </c>
-      <c r="G17">
-        <v>15</v>
-      </c>
-      <c r="H17">
-        <v>20</v>
-      </c>
-      <c r="I17">
-        <v>80</v>
-      </c>
-      <c r="J17">
-        <v>5</v>
-      </c>
-      <c r="K17">
-        <v>40</v>
-      </c>
-      <c r="L17">
-        <v>10</v>
-      </c>
-      <c r="M17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <v>86.7</v>
-      </c>
-      <c r="D18">
-        <v>45.3</v>
-      </c>
-      <c r="E18">
-        <v>90.2</v>
-      </c>
-      <c r="F18">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="G18">
-        <v>34.5</v>
-      </c>
-      <c r="H18">
-        <v>67.8</v>
-      </c>
-      <c r="I18">
-        <v>92.7</v>
-      </c>
-      <c r="J18">
-        <v>21.4</v>
-      </c>
-      <c r="K18">
-        <v>48.9</v>
-      </c>
-      <c r="L18">
-        <v>54.2</v>
-      </c>
-      <c r="M18">
-        <v>14.1</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:A18">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>